--- a/sriramModel-nelson-atypical-patientID_26-sims-crh-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_26-sims-crh-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.051308657103096</v>
+        <v>1.090319516512712</v>
       </c>
       <c r="C2">
-        <v>1.02344893634701</v>
+        <v>1.186803102844706</v>
       </c>
       <c r="D2">
-        <v>1.07813405367292</v>
+        <v>1.046425553201416</v>
       </c>
       <c r="E2">
-        <v>1.060694566805725</v>
+        <v>1.174969244354888</v>
       </c>
       <c r="F2">
-        <v>1.035412022246589</v>
+        <v>1.275364191053586</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.102144171559402</v>
+        <v>1.180504459464514</v>
       </c>
       <c r="C3">
-        <v>1.046642215197885</v>
+        <v>1.37152041548062</v>
       </c>
       <c r="D3">
-        <v>1.155271869923562</v>
+        <v>1.092608146596073</v>
       </c>
       <c r="E3">
-        <v>1.120510486810542</v>
+        <v>1.349763158842306</v>
       </c>
       <c r="F3">
-        <v>1.07031514700529</v>
+        <v>1.549710745909695</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.152516477391833</v>
+        <v>1.27055722944197</v>
       </c>
       <c r="C4">
-        <v>1.06958040572525</v>
+        <v>1.554310169200519</v>
       </c>
       <c r="D4">
-        <v>1.231453829215363</v>
+        <v>1.138551788585141</v>
       </c>
       <c r="E4">
-        <v>1.179485401630379</v>
+        <v>1.524388651246666</v>
       </c>
       <c r="F4">
-        <v>1.104726982139844</v>
+        <v>1.823091467747624</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.202435160704728</v>
+        <v>1.360480164505183</v>
       </c>
       <c r="C5">
-        <v>1.092264032206918</v>
+        <v>1.735312091329143</v>
       </c>
       <c r="D5">
-        <v>1.306717449125842</v>
+        <v>1.184260394175206</v>
       </c>
       <c r="E5">
-        <v>1.237654103267853</v>
+        <v>1.698852214889744</v>
       </c>
       <c r="F5">
-        <v>1.13866411551651</v>
+        <v>2.095554085044653</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.251909480533142</v>
+        <v>1.450275534090923</v>
       </c>
       <c r="C6">
-        <v>1.114693542664947</v>
+        <v>1.914650208424638</v>
       </c>
       <c r="D6">
-        <v>1.381097774650774</v>
+        <v>1.229737767825486</v>
       </c>
       <c r="E6">
-        <v>1.295048951590009</v>
+        <v>1.873159952733651</v>
       </c>
       <c r="F6">
-        <v>1.172142205769193</v>
+        <v>2.367142758634666</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.300948385283309</v>
+        <v>1.539945543065388</v>
       </c>
       <c r="C7">
-        <v>1.136869301284305</v>
+        <v>2.09243520546416</v>
       </c>
       <c r="D7">
-        <v>1.454627419698644</v>
+        <v>1.274987611221113</v>
       </c>
       <c r="E7">
-        <v>1.35169996703137</v>
+        <v>2.047317615441388</v>
       </c>
       <c r="F7">
-        <v>1.20517608120131</v>
+        <v>2.637898244686868</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.349560496860909</v>
+        <v>1.629492334378376</v>
       </c>
       <c r="C8">
-        <v>1.158791602897629</v>
+        <v>2.268766438086308</v>
       </c>
       <c r="D8">
-        <v>1.527336837736793</v>
+        <v>1.320013528177602</v>
       </c>
       <c r="E8">
-        <v>1.407635073998946</v>
+        <v>2.221330628353756</v>
       </c>
       <c r="F8">
-        <v>1.237779746812319</v>
+        <v>2.907858386154138</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.397754144532381</v>
+        <v>1.718917990555388</v>
       </c>
       <c r="C9">
-        <v>1.180460671632097</v>
+        <v>2.443733463788784</v>
       </c>
       <c r="D9">
-        <v>1.599254554188948</v>
+        <v>1.364819028513544</v>
       </c>
       <c r="E9">
-        <v>1.462880325682161</v>
+        <v>2.395204110727434</v>
       </c>
       <c r="F9">
-        <v>1.2699664597364</v>
+        <v>3.177058372988394</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.445537380442872</v>
+        <v>1.808224535302529</v>
       </c>
       <c r="C10">
-        <v>1.201876643204496</v>
+        <v>2.617417340628222</v>
       </c>
       <c r="D10">
-        <v>1.670407276344601</v>
+        <v>1.409407531170858</v>
       </c>
       <c r="E10">
-        <v>1.517460040525992</v>
+        <v>2.56894289852609</v>
       </c>
       <c r="F10">
-        <v>1.30174880140467</v>
+        <v>3.445530940054591</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.492917985487474</v>
+        <v>1.897413935448707</v>
       </c>
       <c r="C11">
-        <v>1.223039564850218</v>
+        <v>2.789891598963838</v>
       </c>
       <c r="D11">
-        <v>1.740820016783927</v>
+        <v>1.453782366797896</v>
       </c>
       <c r="E11">
-        <v>1.57139691752153</v>
+        <v>2.742551560105009</v>
       </c>
       <c r="F11">
-        <v>1.33313872084838</v>
+        <v>3.713306604082365</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.539903477553809</v>
+        <v>1.986488102183029</v>
       </c>
       <c r="C12">
-        <v>1.243949397748339</v>
+        <v>2.961223029297039</v>
       </c>
       <c r="D12">
-        <v>1.810516229382766</v>
+        <v>1.497946781077994</v>
       </c>
       <c r="E12">
-        <v>1.624712171310038</v>
+        <v>2.916034410975263</v>
       </c>
       <c r="F12">
-        <v>1.364147563405721</v>
+        <v>3.980413874556281</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.58650112087157</v>
+        <v>2.075448892857828</v>
       </c>
       <c r="C13">
-        <v>1.264606018131891</v>
+        <v>3.131472948892883</v>
       </c>
       <c r="D13">
-        <v>1.879517922130654</v>
+        <v>1.541903938374181</v>
       </c>
       <c r="E13">
-        <v>1.67742565010894</v>
+        <v>3.089395531930565</v>
       </c>
       <c r="F13">
-        <v>1.394786107668836</v>
+        <v>4.246879423314224</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.632717934970451</v>
+        <v>2.164298111544366</v>
       </c>
       <c r="C14">
-        <v>1.285009216820924</v>
+        <v>3.300697578557341</v>
       </c>
       <c r="D14">
-        <v>1.947845748303185</v>
+        <v>1.585656922613059</v>
       </c>
       <c r="E14">
-        <v>1.729555928970128</v>
+        <v>3.262638783113157</v>
       </c>
       <c r="F14">
-        <v>1.425064606430606</v>
+        <v>4.512728226335838</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.678560702024085</v>
+        <v>2.253037510839982</v>
       </c>
       <c r="C15">
-        <v>1.305158698434633</v>
+        <v>3.468948464507819</v>
       </c>
       <c r="D15">
-        <v>2.015519082960409</v>
+        <v>1.629208740748763</v>
       </c>
       <c r="E15">
-        <v>1.781120392153337</v>
+        <v>3.435767815989514</v>
       </c>
       <c r="F15">
-        <v>1.454992819250134</v>
+        <v>4.777983715217699</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.724035972778321</v>
+        <v>2.341668793608732</v>
       </c>
       <c r="C16">
-        <v>1.325054079649284</v>
+        <v>3.636273101765684</v>
       </c>
       <c r="D16">
-        <v>2.082556097349164</v>
+        <v>1.672562326249825</v>
       </c>
       <c r="E16">
-        <v>1.83213531798771</v>
+        <v>3.608786084080989</v>
       </c>
       <c r="F16">
-        <v>1.484580039017724</v>
+        <v>5.042667880204958</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.769150071194874</v>
+        <v>2.430193613047368</v>
       </c>
       <c r="C17">
-        <v>1.344694888046512</v>
+        <v>3.802715405392642</v>
       </c>
       <c r="D17">
-        <v>2.148973821903938</v>
+        <v>1.715720538289296</v>
       </c>
       <c r="E17">
-        <v>1.882615917192686</v>
+        <v>3.781696848212956</v>
       </c>
       <c r="F17">
-        <v>1.513835115889059</v>
+        <v>5.306801348451426</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.813909098733646</v>
+        <v>2.518613574216181</v>
       </c>
       <c r="C18">
-        <v>1.36408056205134</v>
+        <v>3.968316015204763</v>
       </c>
       <c r="D18">
-        <v>2.214788206075699</v>
+        <v>1.758686170514784</v>
       </c>
       <c r="E18">
-        <v>1.932576410181608</v>
+        <v>3.954503183795907</v>
       </c>
       <c r="F18">
-        <v>1.542766479607866</v>
+        <v>5.570403555032737</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.858318937468292</v>
+        <v>2.606930233837336</v>
       </c>
       <c r="C19">
-        <v>1.383210451039443</v>
+        <v>4.133112610350715</v>
       </c>
       <c r="D19">
-        <v>2.280014147404563</v>
+        <v>1.801461947728626</v>
       </c>
       <c r="E19">
-        <v>1.982030085092962</v>
+        <v>4.127207988223195</v>
       </c>
       <c r="F19">
-        <v>1.571382159956723</v>
+        <v>5.833492799753694</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.902385252445621</v>
+        <v>2.69514510111933</v>
       </c>
       <c r="C20">
-        <v>1.402083814773306</v>
+        <v>4.29714020106848</v>
       </c>
       <c r="D20">
-        <v>2.344665528262845</v>
+        <v>1.844050531390506</v>
       </c>
       <c r="E20">
-        <v>2.030989333468485</v>
+        <v>4.299813985847649</v>
       </c>
       <c r="F20">
-        <v>1.599689804997363</v>
+        <v>6.096086334542258</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.946113491942169</v>
+        <v>2.783259638124682</v>
       </c>
       <c r="C21">
-        <v>1.420699824625333</v>
+        <v>4.460431379146892</v>
       </c>
       <c r="D21">
-        <v>2.40875526813383</v>
+        <v>1.886454520146337</v>
       </c>
       <c r="E21">
-        <v>2.079465711397637</v>
+        <v>4.472323728434989</v>
       </c>
       <c r="F21">
-        <v>1.627696697037287</v>
+        <v>6.358200440624192</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.989508887538502</v>
+        <v>2.871275259926592</v>
       </c>
       <c r="C22">
-        <v>1.43905756314615</v>
+        <v>4.623016542238862</v>
       </c>
       <c r="D22">
-        <v>2.47229532599959</v>
+        <v>1.928676451049167</v>
       </c>
       <c r="E22">
-        <v>2.127469957137379</v>
+        <v>4.644739605702098</v>
       </c>
       <c r="F22">
-        <v>1.655409766445011</v>
+        <v>6.619850463414942</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.032576452191592</v>
+        <v>2.959193334685961</v>
       </c>
       <c r="C23">
-        <v>1.457156024945776</v>
+        <v>4.784924075753959</v>
       </c>
       <c r="D23">
-        <v>2.535296738032403</v>
+        <v>1.970718801880512</v>
       </c>
       <c r="E23">
-        <v>2.175012016693794</v>
+        <v>4.817063830580581</v>
       </c>
       <c r="F23">
-        <v>1.682835603462889</v>
+        <v>6.881050885208634</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.075320977901452</v>
+        <v>3.047015183573923</v>
       </c>
       <c r="C24">
-        <v>1.474994116634764</v>
+        <v>4.946180513155831</v>
       </c>
       <c r="D24">
-        <v>2.597769606290241</v>
+        <v>2.012583992685825</v>
       </c>
       <c r="E24">
-        <v>2.222101073099471</v>
+        <v>4.989298461817511</v>
       </c>
       <c r="F24">
-        <v>1.709980468108164</v>
+        <v>7.141815376521168</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.117747031485733</v>
+        <v>3.134742080295855</v>
       </c>
       <c r="C25">
-        <v>1.492570657189611</v>
+        <v>5.106810687502066</v>
       </c>
       <c r="D25">
-        <v>2.659723098046313</v>
+        <v>2.054274387725699</v>
       </c>
       <c r="E25">
-        <v>2.268745560002127</v>
+        <v>5.161445384919508</v>
       </c>
       <c r="F25">
-        <v>1.736850298185572</v>
+        <v>7.402156847773368</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.159858949233469</v>
+        <v>3.22237525028922</v>
       </c>
       <c r="C26">
-        <v>1.509884378410494</v>
+        <v>5.266837865910954</v>
       </c>
       <c r="D26">
-        <v>2.721165445951971</v>
+        <v>2.095792296859125</v>
       </c>
       <c r="E26">
-        <v>2.314953184949073</v>
+        <v>5.333506305345925</v>
       </c>
       <c r="F26">
-        <v>1.763450715470694</v>
+        <v>7.662087493991948</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2.201660824543539</v>
+        <v>3.309915869976777</v>
       </c>
       <c r="C27">
-        <v>1.526933927630504</v>
+        <v>5.426283867586309</v>
       </c>
       <c r="D27">
-        <v>2.78210391609062</v>
+        <v>2.137139977530417</v>
       </c>
       <c r="E27">
-        <v>2.360730938554096</v>
+        <v>5.50548274520497</v>
       </c>
       <c r="F27">
-        <v>1.789787029533613</v>
+        <v>7.921618828759566</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.243156506734378</v>
+        <v>3.39736506560367</v>
       </c>
       <c r="C28">
-        <v>1.543717866099685</v>
+        <v>5.585169166851403</v>
       </c>
       <c r="D28">
-        <v>2.842544792036727</v>
+        <v>2.178319635799113</v>
       </c>
       <c r="E28">
-        <v>2.406085106114643</v>
+        <v>5.677376036024703</v>
       </c>
       <c r="F28">
-        <v>1.815864240305768</v>
+        <v>8.18076172041876</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2.284349577675141</v>
+        <v>3.484723911513696</v>
       </c>
       <c r="C29">
-        <v>1.560234672292453</v>
+        <v>5.743512984630256</v>
       </c>
       <c r="D29">
-        <v>2.902493342928586</v>
+        <v>2.219333427900022</v>
       </c>
       <c r="E29">
-        <v>2.451021264957306</v>
+        <v>5.849187310464722</v>
       </c>
       <c r="F29">
-        <v>1.841687037916796</v>
+        <v>8.439526416667242</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2.325243346605247</v>
+        <v>3.571993428273036</v>
       </c>
       <c r="C30">
-        <v>1.576482741106118</v>
+        <v>5.901333366316376</v>
       </c>
       <c r="D30">
-        <v>2.961953774193929</v>
+        <v>2.260183460824064</v>
       </c>
       <c r="E30">
-        <v>2.495544282968508</v>
+        <v>6.020917486670236</v>
       </c>
       <c r="F30">
-        <v>1.867259800463857</v>
+        <v>8.697922570372983</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2.36584082814856</v>
+        <v>3.659174580773898</v>
       </c>
       <c r="C31">
-        <v>1.592460385560122</v>
+        <v>6.0586472512868</v>
       </c>
       <c r="D31">
-        <v>3.02092916412414</v>
+        <v>2.300871794290583</v>
       </c>
       <c r="E31">
-        <v>2.539658313094614</v>
+        <v>6.192567257556202</v>
       </c>
       <c r="F31">
-        <v>1.892586589362532</v>
+        <v>8.955959262956576</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>2.406144718034776</v>
+        <v>3.746268274834567</v>
       </c>
       <c r="C32">
-        <v>1.608165837549372</v>
+        <v>6.21547053449387</v>
       </c>
       <c r="D32">
-        <v>3.079421398704246</v>
+        <v>2.341400440701837</v>
       </c>
       <c r="E32">
-        <v>2.583366784184568</v>
+        <v>6.364137064967283</v>
       </c>
       <c r="F32">
-        <v>1.917671142036526</v>
+        <v>9.213645023110894</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2.446157381550142</v>
+        <v>3.833275353900984</v>
       </c>
       <c r="C33">
-        <v>1.623597248777319</v>
+        <v>6.37181811792279</v>
       </c>
       <c r="D33">
-        <v>3.137431086311119</v>
+        <v>2.38177136691387</v>
       </c>
       <c r="E33">
-        <v>2.626672382186869</v>
+        <v>6.535627074964386</v>
       </c>
       <c r="F33">
-        <v>1.942516861646306</v>
+        <v>9.470987840933732</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2.485880806975785</v>
+        <v>3.920196595532277</v>
       </c>
       <c r="C34">
-        <v>1.63875269176724</v>
+        <v>6.527703953235719</v>
       </c>
       <c r="D34">
-        <v>3.194957444649043</v>
+        <v>2.421986494485146</v>
       </c>
       <c r="E34">
-        <v>2.669577030006477</v>
+        <v>6.70703715815995</v>
       </c>
       <c r="F34">
-        <v>1.967126803479001</v>
+        <v>9.727995176758961</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2.525316588543009</v>
+        <v>4.007032706021152</v>
       </c>
       <c r="C35">
-        <v>1.653630160927276</v>
+        <v>6.683141075838595</v>
       </c>
       <c r="D35">
-        <v>3.251998180575235</v>
+        <v>2.462047700596299</v>
       </c>
       <c r="E35">
-        <v>2.712081861977456</v>
+        <v>6.878366846237666</v>
       </c>
       <c r="F35">
-        <v>1.99150365752644</v>
+        <v>9.984673967644465</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>2.564465878743254</v>
+        <v>4.093784314613602</v>
       </c>
       <c r="C36">
-        <v>1.66822757321794</v>
+        <v>6.838141630658187</v>
       </c>
       <c r="D36">
-        <v>3.308549367860127</v>
+        <v>2.501956818665039</v>
       </c>
       <c r="E36">
-        <v>2.754187189182392</v>
+        <v>7.049615295292122</v>
       </c>
       <c r="F36">
-        <v>2.015649726660564</v>
+        <v>10.24103063088696</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>2.603329336134703</v>
+        <v>4.180451967313524</v>
       </c>
       <c r="C37">
-        <v>1.682542769214772</v>
+        <v>6.99271689013396</v>
       </c>
       <c r="D37">
-        <v>3.364605250560497</v>
+        <v>2.541715638102082</v>
       </c>
       <c r="E37">
-        <v>2.79589245585692</v>
+        <v>7.220781250720105</v>
       </c>
       <c r="F37">
-        <v>2.03956689966974</v>
+        <v>10.4970710598766</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>2.641907098032752</v>
+        <v>4.267036118717938</v>
       </c>
       <c r="C38">
-        <v>1.696573513348116</v>
+        <v>7.146877261455073</v>
       </c>
       <c r="D38">
-        <v>3.420158051864561</v>
+        <v>2.581325905579509</v>
       </c>
       <c r="E38">
-        <v>2.837196190145094</v>
+        <v>7.391862976299112</v>
       </c>
       <c r="F38">
-        <v>2.063256618238284</v>
+        <v>10.75280061654438</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2.680198682510373</v>
+        <v>4.353537121905618</v>
       </c>
       <c r="C39">
-        <v>1.710317494942719</v>
+        <v>7.300632285870364</v>
       </c>
       <c r="D39">
-        <v>3.475197771826044</v>
+        <v>2.620789323627868</v>
       </c>
       <c r="E39">
-        <v>2.878095950102862</v>
+        <v>7.562858198378493</v>
       </c>
       <c r="F39">
-        <v>2.086719836725041</v>
+        <v>11.0082241177792</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.71820295143487</v>
+        <v>4.439955217462586</v>
       </c>
       <c r="C40">
-        <v>1.72377232713792</v>
+        <v>7.453990626953678</v>
       </c>
       <c r="D40">
-        <v>3.529711892720323</v>
+        <v>2.660107550796499</v>
       </c>
       <c r="E40">
-        <v>2.918588248452417</v>
+        <v>7.733764038157095</v>
       </c>
       <c r="F40">
-        <v>2.109956973312656</v>
+        <v>11.26334581797659</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>2.755918007464096</v>
+        <v>4.526290521444096</v>
       </c>
       <c r="C41">
-        <v>1.736935548704179</v>
+        <v>7.606960047368613</v>
       </c>
       <c r="D41">
-        <v>3.583685068489175</v>
+        <v>2.699282200837871</v>
       </c>
       <c r="E41">
-        <v>2.958668470840928</v>
+        <v>7.9045769008147</v>
       </c>
       <c r="F41">
-        <v>2.132967850299021</v>
+        <v>11.51816937941914</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2.793341084987878</v>
+        <v>4.612543007224404</v>
       </c>
       <c r="C42">
-        <v>1.74980462318662</v>
+        <v>7.759547372672241</v>
       </c>
       <c r="D42">
-        <v>3.637098794625555</v>
+        <v>2.738314841685124</v>
       </c>
       <c r="E42">
-        <v>2.99833077653387</v>
+        <v>8.075292389621902</v>
       </c>
       <c r="F42">
-        <v>2.155751622249029</v>
+        <v>11.77269783588355</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2.830468489227377</v>
+        <v>4.69871248653699</v>
       </c>
       <c r="C43">
-        <v>1.76237693965593</v>
+        <v>7.911758439546524</v>
       </c>
       <c r="D43">
-        <v>3.68993098668231</v>
+        <v>2.777206993670891</v>
       </c>
       <c r="E43">
-        <v>3.037567996204021</v>
+        <v>8.24590517860995</v>
       </c>
       <c r="F43">
-        <v>2.178306690764005</v>
+        <v>12.02693354487805</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2.867295386221639</v>
+        <v>4.784798589999162</v>
       </c>
       <c r="C44">
-        <v>1.774649809311646</v>
+        <v>8.063598029954697</v>
       </c>
       <c r="D44">
-        <v>3.742155476790583</v>
+        <v>2.81596012702756</v>
       </c>
       <c r="E44">
-        <v>3.076371481696007</v>
+        <v>8.416408839424012</v>
       </c>
       <c r="F44">
-        <v>2.200630595335679</v>
+        <v>12.28087813331343</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2.903815725747577</v>
+        <v>4.870800735559786</v>
       </c>
       <c r="C45">
-        <v>1.786620468165884</v>
+        <v>8.215069780482429</v>
       </c>
       <c r="D45">
-        <v>3.793741476848444</v>
+        <v>2.854575658442363</v>
       </c>
       <c r="E45">
-        <v>3.114730951331543</v>
+        <v>8.586795703052676</v>
       </c>
       <c r="F45">
-        <v>2.222719884499926</v>
+        <v>12.53453241828384</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2.940022011454123</v>
+        <v>4.95671809510474</v>
       </c>
       <c r="C46">
-        <v>1.798286071173498</v>
+        <v>8.366176070819323</v>
       </c>
       <c r="D46">
-        <v>3.84465300454441</v>
+        <v>2.893054946717309</v>
       </c>
       <c r="E46">
-        <v>3.152634307266507</v>
+        <v>8.757056625212241</v>
       </c>
       <c r="F46">
-        <v>2.244569956935949</v>
+        <v>12.78789631321294</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2.975905074099038</v>
+        <v>5.042549558787694</v>
       </c>
       <c r="C47">
-        <v>1.809643694820156</v>
+        <v>8.51691788340757</v>
       </c>
       <c r="D47">
-        <v>3.894848064102422</v>
+        <v>2.931399286852745</v>
       </c>
       <c r="E47">
-        <v>3.19006741810155</v>
+        <v>8.927180705367459</v>
       </c>
       <c r="F47">
-        <v>2.266174895785579</v>
+        <v>13.04096870854579</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3.011453925152374</v>
+        <v>5.128293682189218</v>
       </c>
       <c r="C48">
-        <v>1.820690330568909</v>
+        <v>8.667294628982885</v>
       </c>
       <c r="D48">
-        <v>3.94427783986729</v>
+        <v>2.969609901075329</v>
       </c>
       <c r="E48">
-        <v>3.227013840839876</v>
+        <v>9.097155059833375</v>
       </c>
       <c r="F48">
-        <v>2.287527165492646</v>
+        <v>13.29374733803655</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>3.046655303695259</v>
+        <v>5.213948623180429</v>
       </c>
       <c r="C49">
-        <v>1.83142288593364</v>
+        <v>8.817303931112566</v>
       </c>
       <c r="D49">
-        <v>3.992885917427111</v>
+        <v>3.007687927734471</v>
       </c>
       <c r="E49">
-        <v>3.263454507133973</v>
+        <v>9.266964385840037</v>
       </c>
       <c r="F49">
-        <v>2.308617336406177</v>
+        <v>13.54622858542195</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.081493557434838</v>
+        <v>5.299512072195783</v>
       </c>
       <c r="C50">
-        <v>1.841838177617728</v>
+        <v>8.966941359178193</v>
       </c>
       <c r="D50">
-        <v>4.040606961053916</v>
+        <v>3.045634406473385</v>
       </c>
       <c r="E50">
-        <v>3.299367376960471</v>
+        <v>9.436590493605573</v>
       </c>
       <c r="F50">
-        <v>2.329433752743571</v>
+        <v>13.79840725592123</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>3.115950008892563</v>
+        <v>5.384981163284344</v>
       </c>
       <c r="C51">
-        <v>1.851932932512193</v>
+        <v>9.11620010726787</v>
       </c>
       <c r="D51">
-        <v>4.087365648446635</v>
+        <v>3.083450257410273</v>
       </c>
       <c r="E51">
-        <v>3.334726968769871</v>
+        <v>9.606011921611648</v>
       </c>
       <c r="F51">
-        <v>2.349962051236664</v>
+        <v>14.05027628051923</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>3.150002616146841</v>
+        <v>5.470352347996916</v>
       </c>
       <c r="C52">
-        <v>1.861703858882327</v>
+        <v>9.265070592714942</v>
       </c>
       <c r="D52">
-        <v>4.133075687445065</v>
+        <v>3.121136252014595</v>
       </c>
       <c r="E52">
-        <v>3.3695038433677</v>
+        <v>9.775203122028755</v>
       </c>
       <c r="F52">
-        <v>2.370184840744415</v>
+        <v>14.30182638533624</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3.726422492085018</v>
+        <v>5.555621247348683</v>
       </c>
       <c r="C53">
-        <v>2.03000017989612</v>
+        <v>9.413539963678891</v>
       </c>
       <c r="D53">
-        <v>4.960483269677812</v>
+        <v>3.158692972742783</v>
       </c>
       <c r="E53">
-        <v>4.09357247868527</v>
+        <v>9.944133802723682</v>
       </c>
       <c r="F53">
-        <v>2.889795015684476</v>
+        <v>14.55304559775507</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>4.29711030483951</v>
+        <v>5.640782503530509</v>
       </c>
       <c r="C54">
-        <v>2.194769738300234</v>
+        <v>9.561591499321976</v>
       </c>
       <c r="D54">
-        <v>5.773846605762104</v>
+        <v>3.196120756068597</v>
       </c>
       <c r="E54">
-        <v>4.809499791826163</v>
+        <v>10.11276784841791</v>
       </c>
       <c r="F54">
-        <v>3.404143463720111</v>
+        <v>14.80391865730055</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.861971922091837</v>
+        <v>5.725829503935936</v>
       </c>
       <c r="C55">
-        <v>2.355995950023992</v>
+        <v>9.709203871071647</v>
       </c>
       <c r="D55">
-        <v>6.572336230924985</v>
+        <v>3.233419610756641</v>
       </c>
       <c r="E55">
-        <v>5.517355740099966</v>
+        <v>10.28106216786247</v>
       </c>
       <c r="F55">
-        <v>3.91340686970474</v>
+        <v>15.05442622657339</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5.420802677170093</v>
+        <v>5.810754080012893</v>
       </c>
       <c r="C56">
-        <v>2.513657819337307</v>
+        <v>9.856350235866985</v>
       </c>
       <c r="D56">
-        <v>7.354813110085722</v>
+        <v>3.270589101333298</v>
       </c>
       <c r="E56">
-        <v>6.216979481319491</v>
+        <v>10.44896536504826</v>
       </c>
       <c r="F56">
-        <v>4.417550043648183</v>
+        <v>15.30454400605348</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5.9732867230508</v>
+        <v>5.895546186996616</v>
       </c>
       <c r="C57">
-        <v>2.667730086533092</v>
+        <v>10.00299711720799</v>
       </c>
       <c r="D57">
-        <v>8.119852422557317</v>
+        <v>3.307628175228504</v>
       </c>
       <c r="E57">
-        <v>6.908014402333827</v>
+        <v>10.61641601553398</v>
       </c>
       <c r="F57">
-        <v>4.91635303003174</v>
+        <v>15.55424134619923</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6.51899177037009</v>
+        <v>5.980193357435073</v>
       </c>
       <c r="C58">
-        <v>2.818183199840953</v>
+        <v>10.14910303568066</v>
       </c>
       <c r="D58">
-        <v>8.865755402773921</v>
+        <v>3.344534898775463</v>
       </c>
       <c r="E58">
-        <v>7.589919992065018</v>
+        <v>10.78334057131148</v>
       </c>
       <c r="F58">
-        <v>5.409417976654294</v>
+        <v>15.80347956790328</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>7.057360907603208</v>
+        <v>6.064680056520863</v>
       </c>
       <c r="C59">
-        <v>2.964983465236428</v>
+        <v>10.29461684227785</v>
       </c>
       <c r="D59">
-        <v>9.590557224036392</v>
+        <v>3.381306091493415</v>
       </c>
       <c r="E59">
-        <v>8.261969834096138</v>
+        <v>10.9496508572209</v>
       </c>
       <c r="F59">
-        <v>5.896163297573882</v>
+        <v>16.05220962325168</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7.587701186901564</v>
+        <v>6.148986764385016</v>
       </c>
       <c r="C60">
-        <v>3.108093023821766</v>
+        <v>10.43947561334076</v>
       </c>
       <c r="D60">
-        <v>10.2920375880446</v>
+        <v>3.417936753118143</v>
       </c>
       <c r="E60">
-        <v>8.923238569120961</v>
+        <v>11.11524109672428</v>
       </c>
       <c r="F60">
-        <v>6.375808778856588</v>
+        <v>16.30036980799119</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.109170351232585</v>
+        <v>6.233088867965529</v>
       </c>
       <c r="C61">
-        <v>3.247469868619673</v>
+        <v>10.5836021121136</v>
       </c>
       <c r="D61">
-        <v>10.96773936223946</v>
+        <v>3.454419234128677</v>
       </c>
       <c r="E61">
-        <v>9.572579966909574</v>
+        <v>11.27998439598854</v>
       </c>
       <c r="F61">
-        <v>6.847355127060535</v>
+        <v>16.54788062035685</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.620762344363829</v>
+        <v>6.316955172357313</v>
       </c>
       <c r="C62">
-        <v>3.383067864454606</v>
+        <v>10.72690166176046</v>
       </c>
       <c r="D62">
-        <v>11.6150000363311</v>
+        <v>3.490742028426035</v>
       </c>
       <c r="E62">
-        <v>10.20859826657691</v>
+        <v>11.44372869189921</v>
       </c>
       <c r="F62">
-        <v>7.30956186674906</v>
+        <v>16.79463991797902</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>9.121292426207884</v>
+        <v>6.400545963388714</v>
       </c>
       <c r="C63">
-        <v>3.514836751144357</v>
+        <v>10.86925832288133</v>
       </c>
       <c r="D63">
-        <v>12.23100294730373</v>
+        <v>3.526888044299132</v>
       </c>
       <c r="E63">
-        <v>10.82961461496767</v>
+        <v>11.60629208849343</v>
       </c>
       <c r="F63">
-        <v>7.760926456816353</v>
+        <v>17.04051589126266</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.609384050251311</v>
+        <v>6.483810056223069</v>
       </c>
       <c r="C64">
-        <v>3.642722168909215</v>
+        <v>11.01053024492238</v>
       </c>
       <c r="D64">
-        <v>12.81285234368234</v>
+        <v>3.562832215724407</v>
       </c>
       <c r="E64">
-        <v>11.43363249339774</v>
+        <v>11.76745763519424</v>
       </c>
       <c r="F64">
-        <v>8.199673937877966</v>
+        <v>17.28533751394516</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>10.0834601800177</v>
+        <v>6.566681319356753</v>
       </c>
       <c r="C65">
-        <v>3.766665703568461</v>
+        <v>11.15054426311548</v>
       </c>
       <c r="D65">
-        <v>13.35767620836434</v>
+        <v>3.598538292453297</v>
       </c>
       <c r="E65">
-        <v>12.01830855034266</v>
+        <v>11.92696778887332</v>
       </c>
       <c r="F65">
-        <v>8.623761801899851</v>
+        <v>17.52888082596568</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>10.54174251235007</v>
+        <v>6.649073934890819</v>
       </c>
       <c r="C66">
-        <v>3.886604968988724</v>
+        <v>11.28908866206619</v>
       </c>
       <c r="D66">
-        <v>13.86275734211349</v>
+        <v>3.633954669169752</v>
       </c>
       <c r="E66">
-        <v>12.58093930252783</v>
+        <v>12.08451877296188</v>
       </c>
       <c r="F66">
-        <v>9.030910145800121</v>
+        <v>17.77085218853516</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>10.98226315759072</v>
+        <v>6.730876138230708</v>
       </c>
       <c r="C67">
-        <v>4.002473752763736</v>
+        <v>11.42590553941895</v>
       </c>
       <c r="D67">
-        <v>14.32568847724354</v>
+        <v>3.669009134323538</v>
       </c>
       <c r="E67">
-        <v>13.11847892049662</v>
+        <v>12.23975525375937</v>
       </c>
       <c r="F67">
-        <v>9.418664402630959</v>
+        <v>18.01086583564139</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>11.40289448943419</v>
+        <v>6.811942173266861</v>
       </c>
       <c r="C68">
-        <v>4.114202231346358</v>
+        <v>11.56068185333982</v>
       </c>
       <c r="D68">
-        <v>14.74454121713976</v>
+        <v>3.70360248243836</v>
       </c>
       <c r="E68">
-        <v>13.62760661689329</v>
+        <v>12.3922660315009</v>
       </c>
       <c r="F68">
-        <v>9.78449524772277</v>
+        <v>18.24841509540525</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>11.80140208137751</v>
+        <v>6.892082360013699</v>
       </c>
       <c r="C69">
-        <v>4.221717279217985</v>
+        <v>11.69303905764608</v>
       </c>
       <c r="D69">
-        <v>15.11803205820141</v>
+        <v>3.73760109006864</v>
       </c>
       <c r="E69">
-        <v>14.10486185469264</v>
+        <v>12.54158185594262</v>
       </c>
       <c r="F69">
-        <v>10.12593469942532</v>
+        <v>18.48283757180005</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>12.17552500377434</v>
+        <v>6.971051454180266</v>
       </c>
       <c r="C70">
-        <v>4.324942917219683</v>
+        <v>11.82252203507786</v>
       </c>
       <c r="D70">
-        <v>15.44566369374758</v>
+        <v>3.770828860475679</v>
       </c>
       <c r="E70">
-        <v>14.54685635025491</v>
+        <v>12.68717594704142</v>
       </c>
       <c r="F70">
-        <v>10.44073894033962</v>
+        <v>18.7132752480437</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>12.52308502098227</v>
+        <v>7.048535784984549</v>
       </c>
       <c r="C71">
-        <v>4.423800953712689</v>
+        <v>11.94858817368594</v>
       </c>
       <c r="D71">
-        <v>15.72781850423596</v>
+        <v>3.803059463489224</v>
       </c>
       <c r="E71">
-        <v>14.95055218208684</v>
+        <v>12.82846885128962</v>
       </c>
       <c r="F71">
-        <v>10.72705997422661</v>
+        <v>18.93863297948383</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>12.8421196598325</v>
+        <v>7.1241410292489</v>
       </c>
       <c r="C72">
-        <v>4.518211875324681</v>
+        <v>12.07059767425879</v>
       </c>
       <c r="D72">
-        <v>15.96578515616289</v>
+        <v>3.834010539495555</v>
       </c>
       <c r="E72">
-        <v>15.31356909427088</v>
+        <v>12.96483850664784</v>
       </c>
       <c r="F72">
-        <v>10.98360169559705</v>
+        <v>19.15754296547965</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>13.13102894533493</v>
+        <v>7.197383762214397</v>
       </c>
       <c r="C73">
-        <v>4.608096052029962</v>
+        <v>12.1878070894176</v>
       </c>
       <c r="D73">
-        <v>16.1617085574333</v>
+        <v>3.863342413569864</v>
       </c>
       <c r="E73">
-        <v>15.63446127832705</v>
+        <v>13.09563687688425</v>
       </c>
       <c r="F73">
-        <v>11.20973464685979</v>
+        <v>19.36834770191574</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>13.38871758829578</v>
+        <v>7.267691033970675</v>
       </c>
       <c r="C74">
-        <v>4.693375334061287</v>
+        <v>12.29936858320396</v>
       </c>
       <c r="D74">
-        <v>16.31846685738469</v>
+        <v>3.8906645485966</v>
       </c>
       <c r="E74">
-        <v>15.91290010553415</v>
+        <v>13.22021297845156</v>
       </c>
       <c r="F74">
-        <v>11.40554932476188</v>
+        <v>19.56911641353977</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>13.6147104332681</v>
+        <v>7.334413601476971</v>
       </c>
       <c r="C75">
-        <v>4.773975052830426</v>
+        <v>12.4043401444244</v>
       </c>
       <c r="D75">
-        <v>16.43949215179477</v>
+        <v>3.91555296033129</v>
       </c>
       <c r="E75">
-        <v>16.1497188702224</v>
+        <v>13.33794191304084</v>
       </c>
       <c r="F75">
-        <v>11.57183943864784</v>
+        <v>19.75771823465696</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>13.80922044981036</v>
+        <v>7.396857971908743</v>
       </c>
       <c r="C76">
-        <v>4.849826858819063</v>
+        <v>12.50170829373818</v>
       </c>
       <c r="D76">
-        <v>16.52856066272917</v>
+        <v>3.937580300559303</v>
       </c>
       <c r="E76">
-        <v>16.34681161001221</v>
+        <v>13.44825774668903</v>
       </c>
       <c r="F76">
-        <v>11.71002004447791</v>
+        <v>19.93195787724986</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>13.97315117570179</v>
+        <v>7.454339109853048</v>
       </c>
       <c r="C77">
-        <v>4.920871927584451</v>
+        <v>12.59042751782466</v>
       </c>
       <c r="D77">
-        <v>16.5895808637499</v>
+        <v>3.95635697769777</v>
       </c>
       <c r="E77">
-        <v>16.50692323145186</v>
+        <v>13.55068757629464</v>
       </c>
       <c r="F77">
-        <v>11.82199782494391</v>
+        <v>20.08977661046594</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>14.10803634524014</v>
+        <v>7.50624971643008</v>
       </c>
       <c r="C78">
-        <v>4.987064873590374</v>
+        <v>12.6694791709265</v>
       </c>
       <c r="D78">
-        <v>16.62640426938265</v>
+        <v>3.971577032439749</v>
       </c>
       <c r="E78">
-        <v>16.63337506755223</v>
+        <v>13.64488260926706</v>
       </c>
       <c r="F78">
-        <v>11.91001688397945</v>
+        <v>20.22949135826732</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>14.21592320998843</v>
+        <v>7.55213424853462</v>
       </c>
       <c r="C79">
-        <v>5.04837835896165</v>
+        <v>12.73794539073515</v>
       </c>
       <c r="D79">
-        <v>16.64267542229274</v>
+        <v>3.983058556669802</v>
       </c>
       <c r="E79">
-        <v>16.72978675660685</v>
+        <v>13.73064240075525</v>
       </c>
       <c r="F79">
-        <v>11.97650333232154</v>
+        <v>20.35001983936429</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>14.29922005786896</v>
+        <v>7.591750219823196</v>
       </c>
       <c r="C80">
-        <v>5.10480810049182</v>
+        <v>12.79509139195086</v>
       </c>
       <c r="D80">
-        <v>16.64172799505017</v>
+        <v>3.990767846980551</v>
       </c>
       <c r="E80">
-        <v>16.79983265152769</v>
+        <v>13.80792726155666</v>
       </c>
       <c r="F80">
-        <v>12.02392696187845</v>
+        <v>20.45103286628632</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>14.36053403816943</v>
+        <v>7.625099852420433</v>
       </c>
       <c r="C81">
-        <v>5.156377949122781</v>
+        <v>12.84044322623568</v>
       </c>
       <c r="D81">
-        <v>16.62652582155361</v>
+        <v>3.994820510237831</v>
       </c>
       <c r="E81">
-        <v>16.84705566505233</v>
+        <v>13.87685970546592</v>
       </c>
       <c r="F81">
-        <v>12.05469084210361</v>
+        <v>20.53298895302443</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>14.40252016223527</v>
+        <v>7.652423479633904</v>
       </c>
       <c r="C82">
-        <v>5.203144507789841</v>
+        <v>12.87384572791175</v>
       </c>
       <c r="D82">
-        <v>16.59964199300361</v>
+        <v>3.995460050311969</v>
       </c>
       <c r="E82">
-        <v>16.87474249369597</v>
+        <v>13.93771338501462</v>
       </c>
       <c r="F82">
-        <v>12.0710524111768</v>
+        <v>20.59704422331501</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>14.42775733191521</v>
+        <v>7.674158121283289</v>
       </c>
       <c r="C83">
-        <v>5.245200716480676</v>
+        <v>12.89548721748865</v>
       </c>
       <c r="D83">
-        <v>16.5632666404494</v>
+        <v>3.993021148101677</v>
       </c>
       <c r="E83">
-        <v>16.88585384351865</v>
+        <v>13.99089082192887</v>
       </c>
       <c r="F83">
-        <v>12.07507444406207</v>
+        <v>20.64486991925384</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>14.43865824088732</v>
+        <v>7.690874624702385</v>
       </c>
       <c r="C84">
-        <v>5.282677637906083</v>
+        <v>12.9058842193971</v>
       </c>
       <c r="D84">
-        <v>16.519233793389</v>
+        <v>3.987887891332874</v>
       </c>
       <c r="E84">
-        <v>16.88299734412202</v>
+        <v>14.03689480122473</v>
       </c>
       <c r="F84">
-        <v>12.0686009309075</v>
+        <v>20.67843182358018</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>14.43741311358418</v>
+        <v>7.703210087840379</v>
       </c>
       <c r="C85">
-        <v>5.315743970243625</v>
+        <v>12.90582976298793</v>
       </c>
       <c r="D85">
-        <v>16.46905897544455</v>
+        <v>3.980455961438349</v>
       </c>
       <c r="E85">
-        <v>16.86843025912048</v>
+        <v>14.07629665297661</v>
       </c>
       <c r="F85">
-        <v>12.0532507326251</v>
+        <v>20.69978331398245</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>14.38008969136765</v>
+        <v>7.711809124751939</v>
       </c>
       <c r="C86">
-        <v>5.304213260946819</v>
+        <v>12.8963156311684</v>
       </c>
       <c r="D86">
-        <v>16.39593171650204</v>
+        <v>3.971104047632442</v>
       </c>
       <c r="E86">
-        <v>16.79830318935359</v>
+        <v>14.10970499615058</v>
       </c>
       <c r="F86">
-        <v>11.99458982046968</v>
+        <v>20.71090497197811</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>14.32201727077026</v>
+        <v>7.717281094716982</v>
       </c>
       <c r="C87">
-        <v>5.292306976309905</v>
+        <v>12.87844532464197</v>
       </c>
       <c r="D87">
-        <v>16.32251634737693</v>
+        <v>3.960175843139292</v>
       </c>
       <c r="E87">
-        <v>16.72744639146985</v>
+        <v>14.13773805113322</v>
       </c>
       <c r="F87">
-        <v>11.93537413913514</v>
+        <v>20.71360130113509</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>14.26334141090052</v>
+        <v>7.720174292039247</v>
       </c>
       <c r="C88">
-        <v>5.280051900469517</v>
+        <v>12.85335199172015</v>
       </c>
       <c r="D88">
-        <v>16.24889907730819</v>
+        <v>3.947971318420527</v>
       </c>
       <c r="E88">
-        <v>16.65600013090786</v>
+        <v>14.16100102207754</v>
       </c>
       <c r="F88">
-        <v>11.87570691050502</v>
+        <v>20.70944903352248</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>14.20418461447836</v>
+        <v>7.720964434092204</v>
       </c>
       <c r="C89">
-        <v>5.267474755877767</v>
+        <v>12.8221319206769</v>
       </c>
       <c r="D89">
-        <v>16.17514493539028</v>
+        <v>3.934744808529858</v>
       </c>
       <c r="E89">
-        <v>16.58407924266075</v>
+        <v>14.18006916823539</v>
       </c>
       <c r="F89">
-        <v>11.81567474745149</v>
+        <v>20.69978396805087</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>14.14464947312095</v>
+        <v>7.720053319549964</v>
       </c>
       <c r="C90">
-        <v>5.254602831958018</v>
+        <v>12.78579809181023</v>
       </c>
       <c r="D90">
-        <v>16.1013058193733</v>
+        <v>3.920707394201234</v>
       </c>
       <c r="E90">
-        <v>16.51177917951016</v>
+        <v>14.19547652468529</v>
       </c>
       <c r="F90">
-        <v>11.75535064627686</v>
+        <v>20.68571234168012</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>14.084821567923</v>
+        <v>7.71777367702958</v>
       </c>
       <c r="C91">
-        <v>5.241463213288329</v>
+        <v>12.74525314525693</v>
       </c>
       <c r="D91">
-        <v>16.02742317499626</v>
+        <v>3.906031545032095</v>
       </c>
       <c r="E91">
-        <v>16.43917940003653</v>
+        <v>14.20770939487339</v>
       </c>
       <c r="F91">
-        <v>11.69479560730777</v>
+        <v>20.66813522603051</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>14.02477175289868</v>
+        <v>7.714397140852292</v>
       </c>
       <c r="C92">
-        <v>5.228082184779298</v>
+        <v>12.70127895579486</v>
       </c>
       <c r="D92">
-        <v>15.95353003910848</v>
+        <v>3.8908566073169</v>
       </c>
       <c r="E92">
-        <v>16.36634577551448</v>
+        <v>14.21720372808276</v>
       </c>
       <c r="F92">
-        <v>11.63406073019783</v>
+        <v>20.64777790251496</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>13.96455851427102</v>
+        <v>7.710143222818346</v>
       </c>
       <c r="C93">
-        <v>5.214484779986629</v>
+        <v>12.65453770510193</v>
       </c>
       <c r="D93">
-        <v>15.87965270102217</v>
+        <v>3.875294274518708</v>
       </c>
       <c r="E93">
-        <v>16.29333283746941</v>
+        <v>14.22434541801818</v>
       </c>
       <c r="F93">
-        <v>11.57318873867981</v>
+        <v>20.62521933763396</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>13.90423023326546</v>
+        <v>7.705188081713422</v>
       </c>
       <c r="C94">
-        <v>5.200694446402955</v>
+        <v>12.60558042062367</v>
       </c>
       <c r="D94">
-        <v>15.80581198943456</v>
+        <v>3.859433625530337</v>
       </c>
       <c r="E94">
-        <v>16.22018609290128</v>
+        <v>14.22947255123003</v>
       </c>
       <c r="F94">
-        <v>11.51221522095837</v>
+        <v>20.6009192437705</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>13.8438266366028</v>
+        <v>7.699672488248862</v>
       </c>
       <c r="C95">
-        <v>5.186732889531632</v>
+        <v>12.55485949248158</v>
       </c>
       <c r="D95">
-        <v>15.73202457747931</v>
+        <v>3.843345469092415</v>
       </c>
       <c r="E95">
-        <v>16.14694317055475</v>
+        <v>14.23287888665299</v>
       </c>
       <c r="F95">
-        <v>11.45116988084054</v>
+        <v>20.57524130924406</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>13.78338046408506</v>
+        <v>7.6937086762221</v>
       </c>
       <c r="C96">
-        <v>5.172620003402137</v>
+        <v>12.50274245252661</v>
       </c>
       <c r="D96">
-        <v>15.65830385309581</v>
+        <v>3.827085964338608</v>
       </c>
       <c r="E96">
-        <v>16.07363538418033</v>
+        <v>14.23481799761886</v>
       </c>
       <c r="F96">
-        <v>11.39007759346424</v>
+        <v>20.54847276108027</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>13.722918687353</v>
+        <v>7.687385965130544</v>
       </c>
       <c r="C97">
-        <v>5.158373869826924</v>
+        <v>12.44952558049144</v>
       </c>
       <c r="D97">
-        <v>15.58466050195976</v>
+        <v>3.810699637992314</v>
       </c>
       <c r="E97">
-        <v>16.00028881545305</v>
+        <v>14.23550762431472</v>
       </c>
       <c r="F97">
-        <v>11.32895917529433</v>
+        <v>20.52084021641888</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>13.6624635159596</v>
+        <v>7.680775425947532</v>
       </c>
       <c r="C98">
-        <v>5.144010818032791</v>
+        <v>12.39544634906674</v>
       </c>
       <c r="D98">
-        <v>15.51110306418589</v>
+        <v>3.794221791494778</v>
       </c>
       <c r="E98">
-        <v>15.92692519162387</v>
+        <v>14.23513397105772</v>
       </c>
       <c r="F98">
-        <v>11.26783201891027</v>
+        <v>20.49252249888198</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>13.60203327641808</v>
+        <v>7.673933670441117</v>
       </c>
       <c r="C99">
-        <v>5.129545534628361</v>
+        <v>12.34069432828614</v>
       </c>
       <c r="D99">
-        <v>15.4376384079929</v>
+        <v>3.777680433130461</v>
       </c>
       <c r="E99">
-        <v>15.85356266341918</v>
+        <v>14.23385579855573</v>
       </c>
       <c r="F99">
-        <v>11.20671071440138</v>
+        <v>20.46366091943122</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>13.54164329851899</v>
+        <v>7.666905848486175</v>
       </c>
       <c r="C100">
-        <v>5.114991189147813</v>
+        <v>12.28542045782393</v>
       </c>
       <c r="D100">
-        <v>15.36427206567926</v>
+        <v>3.761097821347698</v>
       </c>
       <c r="E100">
-        <v>15.78021648984851</v>
+        <v>14.2318081783537</v>
       </c>
       <c r="F100">
-        <v>11.14560754249954</v>
+        <v>20.43436724882794</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>13.4813062017173</v>
+        <v>7.659728045243962</v>
       </c>
       <c r="C101">
-        <v>5.100359558393727</v>
+        <v>12.22974471824397</v>
       </c>
       <c r="D101">
-        <v>15.29100866731136</v>
+        <v>3.74449166641578</v>
       </c>
       <c r="E101">
-        <v>15.70689947265913</v>
+        <v>14.22910583155844</v>
       </c>
       <c r="F101">
-        <v>11.08453284967822</v>
+        <v>20.40473004010896</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>13.42103243436391</v>
+        <v>7.652429149997966</v>
       </c>
       <c r="C102">
-        <v>5.085661152743178</v>
+        <v>12.17376242687047</v>
       </c>
       <c r="D102">
-        <v>15.21785190607207</v>
+        <v>3.727876088953143</v>
       </c>
       <c r="E102">
-        <v>15.63362235389063</v>
+        <v>14.22584608015248</v>
       </c>
       <c r="F102">
-        <v>11.02349537560761</v>
+        <v>20.37481961543756</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>13.36083072727429</v>
+        <v>7.645032349737974</v>
       </c>
       <c r="C103">
-        <v>5.070905343773044</v>
+        <v>12.11754931802284</v>
       </c>
       <c r="D103">
-        <v>15.14480478010155</v>
+        <v>3.711262374159521</v>
       </c>
       <c r="E103">
-        <v>15.56039418876601</v>
+        <v>14.22211143794182</v>
       </c>
       <c r="F103">
-        <v>10.96250252880075</v>
+        <v>20.34469194809572</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>13.30070842851332</v>
+        <v>7.637556305718451</v>
       </c>
       <c r="C104">
-        <v>5.056100485248034</v>
+        <v>12.06116560160395</v>
       </c>
       <c r="D104">
-        <v>15.07186975005569</v>
+        <v>3.694659557067956</v>
       </c>
       <c r="E104">
-        <v>15.48722262986328</v>
+        <v>14.21797185441143</v>
       </c>
       <c r="F104">
-        <v>10.90156061014955</v>
+        <v>20.31439167978978</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>13.24067170907372</v>
+        <v>7.630016075486412</v>
       </c>
       <c r="C105">
-        <v>5.041254023433659</v>
+        <v>12.00465920370422</v>
       </c>
       <c r="D105">
-        <v>14.99904887535951</v>
+        <v>3.678074890111354</v>
       </c>
       <c r="E105">
-        <v>15.41411425084178</v>
+        <v>14.21348663493381</v>
       </c>
       <c r="F105">
-        <v>10.84067499663258</v>
+        <v>20.28395450480713</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>13.18072575348986</v>
+        <v>7.622423841560559</v>
       </c>
       <c r="C106">
-        <v>5.026372596541137</v>
+        <v>11.94806831624747</v>
       </c>
       <c r="D106">
-        <v>14.92634385735145</v>
+        <v>3.661514209347848</v>
       </c>
       <c r="E106">
-        <v>15.3410746177318</v>
+        <v>14.20870607665976</v>
       </c>
       <c r="F106">
-        <v>10.77985029084517</v>
+        <v>20.25340904807162</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>13.12087494121809</v>
+        <v>7.614789493022745</v>
       </c>
       <c r="C107">
-        <v>5.011462125484334</v>
+        <v>11.89142348830485</v>
       </c>
       <c r="D107">
-        <v>14.85375616801342</v>
+        <v>3.644982220506425</v>
       </c>
       <c r="E107">
-        <v>15.2681084595068</v>
+        <v>14.20367286084447</v>
       </c>
       <c r="F107">
-        <v>10.71909045157296</v>
+        <v>20.22277831386009</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>13.06112300261626</v>
+        <v>7.607121076954492</v>
       </c>
       <c r="C108">
-        <v>4.996527895338614</v>
+        <v>11.83474922499251</v>
       </c>
       <c r="D108">
-        <v>14.78128704460389</v>
+        <v>3.628482726591485</v>
       </c>
       <c r="E108">
-        <v>15.1952198221572</v>
+        <v>14.19842323461546</v>
       </c>
       <c r="F108">
-        <v>10.65839890266299</v>
+        <v>20.19208083537644</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>13.00147312397161</v>
+        <v>7.599425161378691</v>
       </c>
       <c r="C109">
-        <v>4.981574628079309</v>
+        <v>11.7780651887649</v>
       </c>
       <c r="D109">
-        <v>14.70893756538099</v>
+        <v>3.612018806901397</v>
       </c>
       <c r="E109">
-        <v>15.12241219834928</v>
+        <v>14.19298800966467</v>
       </c>
       <c r="F109">
-        <v>10.59777861778995</v>
+        <v>20.16133158184564</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>12.94192803342499</v>
+        <v>7.591707122354189</v>
       </c>
       <c r="C110">
-        <v>4.96660654684001</v>
+        <v>11.72138719251891</v>
       </c>
       <c r="D110">
-        <v>14.63670865167401</v>
+        <v>3.595592966348587</v>
       </c>
       <c r="E110">
-        <v>15.04968861313379</v>
+        <v>14.18739340418491</v>
       </c>
       <c r="F110">
-        <v>10.53723219029803</v>
+        <v>20.13054266668573</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>12.88249010975861</v>
+        <v>7.58397137243361</v>
       </c>
       <c r="C111">
-        <v>4.951627432756738</v>
+        <v>11.66472802155347</v>
       </c>
       <c r="D111">
-        <v>14.56460110219258</v>
+        <v>3.57920724997768</v>
       </c>
       <c r="E111">
-        <v>14.977051686515</v>
+        <v>14.18166175204006</v>
       </c>
       <c r="F111">
-        <v>10.47676189210893</v>
+        <v>20.09972394275026</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>12.82316138132363</v>
+        <v>7.576221543572085</v>
       </c>
       <c r="C112">
-        <v>4.936640675339264</v>
+        <v>11.60809806224474</v>
       </c>
       <c r="D112">
-        <v>14.49261562438473</v>
+        <v>3.562863327772144</v>
       </c>
       <c r="E112">
-        <v>14.90450369232759</v>
+        <v>14.17581210227542</v>
       </c>
       <c r="F112">
-        <v>10.41636972482795</v>
+        <v>20.06888345322086</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>12.76394361465548</v>
+        <v>7.568460630134871</v>
       </c>
       <c r="C113">
-        <v>4.921649316954526</v>
+        <v>11.55150578642473</v>
       </c>
       <c r="D113">
-        <v>14.42075284957537</v>
+        <v>3.546562564208574</v>
       </c>
       <c r="E113">
-        <v>14.83204661329195</v>
+        <v>14.16986072347371</v>
       </c>
       <c r="F113">
-        <v>10.35605746485011</v>
+        <v>20.03802776623037</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>12.70483835400806</v>
+        <v>7.56069110674688</v>
       </c>
       <c r="C114">
-        <v>4.906656091982338</v>
+        <v>11.49495812242485</v>
       </c>
       <c r="D114">
-        <v>14.34901335002595</v>
+        <v>3.53030607110848</v>
       </c>
       <c r="E114">
-        <v>14.75968218663591</v>
+        <v>14.16382152705069</v>
       </c>
       <c r="F114">
-        <v>10.2958266989034</v>
+        <v>20.00716225177214</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>12.64584695732545</v>
+        <v>7.552915047855167</v>
       </c>
       <c r="C115">
-        <v>4.891663461290389</v>
+        <v>11.43846076720438</v>
       </c>
       <c r="D115">
-        <v>14.2773976499739</v>
+        <v>3.514094762685394</v>
       </c>
       <c r="E115">
-        <v>14.68741195154884</v>
+        <v>14.15770642547391</v>
       </c>
       <c r="F115">
-        <v>10.23567885272399</v>
+        <v>19.97629128635026</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>12.58697062764399</v>
+        <v>7.545134174379968</v>
       </c>
       <c r="C116">
-        <v>4.876673642595639</v>
+        <v>11.38201843568747</v>
       </c>
       <c r="D116">
-        <v>14.20590623747175</v>
+        <v>3.497929393649924</v>
       </c>
       <c r="E116">
-        <v>14.61523725848728</v>
+        <v>14.15152563375588</v>
       </c>
       <c r="F116">
-        <v>10.17561521510054</v>
+        <v>19.94541847368345</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>12.52821043493743</v>
+        <v>7.537349919151562</v>
       </c>
       <c r="C117">
-        <v>4.861688636251423</v>
+        <v>11.32563505383099</v>
       </c>
       <c r="D117">
-        <v>14.13453956315162</v>
+        <v>3.481810587400273</v>
       </c>
       <c r="E117">
-        <v>14.54315936423664</v>
+        <v>14.14528792385022</v>
       </c>
       <c r="F117">
-        <v>10.11563695883132</v>
+        <v>19.91454679399513</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>12.46956734162631</v>
+        <v>7.529563478984825</v>
       </c>
       <c r="C118">
-        <v>4.846710250950725</v>
+        <v>11.26931390440258</v>
       </c>
       <c r="D118">
-        <v>14.06329805232865</v>
+        <v>3.465738858838256</v>
       </c>
       <c r="E118">
-        <v>14.47117934935542</v>
+        <v>14.13900083417471</v>
       </c>
       <c r="F118">
-        <v>10.05574515863139</v>
+        <v>19.88367871493892</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>12.41104220947044</v>
+        <v>7.521775855908253</v>
       </c>
       <c r="C119">
-        <v>4.831740124333699</v>
+        <v>11.21305775832902</v>
       </c>
       <c r="D119">
-        <v>13.99218210859348</v>
+        <v>3.449714633354788</v>
       </c>
       <c r="E119">
-        <v>14.39929819500521</v>
+        <v>14.13267085782674</v>
       </c>
       <c r="F119">
-        <v>9.995940806248527</v>
+        <v>19.8528162813917</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>12.35263581888029</v>
+        <v>7.513987891503106</v>
       </c>
       <c r="C120">
-        <v>4.816779739865491</v>
+        <v>11.15686896608848</v>
       </c>
       <c r="D120">
-        <v>13.92119211782642</v>
+        <v>3.433738262821192</v>
       </c>
       <c r="E120">
-        <v>14.32751677526778</v>
+        <v>14.1263035837715</v>
       </c>
       <c r="F120">
-        <v>9.936224823343839</v>
+        <v>19.82196118943492</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12.29434888107431</v>
+        <v>7.506200297623863</v>
       </c>
       <c r="C121">
-        <v>4.801830445374822</v>
+        <v>11.10074956236133</v>
       </c>
       <c r="D121">
-        <v>13.85032845241108</v>
+        <v>3.417810036522464</v>
       </c>
       <c r="E121">
-        <v>14.25583589122952</v>
+        <v>14.11990387406592</v>
       </c>
       <c r="F121">
-        <v>9.876598071959542</v>
+        <v>19.7911148409174</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>12.23618204912677</v>
+        <v>7.49841367654286</v>
       </c>
       <c r="C122">
-        <v>4.786893465149404</v>
+        <v>11.04470131238741</v>
       </c>
       <c r="D122">
-        <v>13.77959147515086</v>
+        <v>3.401930199399014</v>
       </c>
       <c r="E122">
-        <v>14.18425627948499</v>
+        <v>14.11347592436096</v>
       </c>
       <c r="F122">
-        <v>9.817061362591094</v>
+        <v>19.76027842017575</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>12.17813592546279</v>
+        <v>7.490628539148349</v>
       </c>
       <c r="C123">
-        <v>4.771969912084519</v>
+        <v>10.98872574172261</v>
       </c>
       <c r="D123">
-        <v>13.70898153965251</v>
+        <v>3.386098944655547</v>
       </c>
       <c r="E123">
-        <v>14.11277861386402</v>
+        <v>14.10702335880994</v>
       </c>
       <c r="F123">
-        <v>9.757615463365081</v>
+        <v>19.72945289637201</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>12.12021106917532</v>
+        <v>7.482845319309478</v>
       </c>
       <c r="C124">
-        <v>4.757060800556796</v>
+        <v>10.93282419757</v>
       </c>
       <c r="D124">
-        <v>13.63849899273033</v>
+        <v>3.370316452266203</v>
       </c>
       <c r="E124">
-        <v>14.04140352985769</v>
+        <v>14.10054933082377</v>
       </c>
       <c r="F124">
-        <v>9.698261104836618</v>
+        <v>19.69863912714871</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>12.0624080030027</v>
+        <v>7.475064383585074</v>
       </c>
       <c r="C125">
-        <v>4.742167056859564</v>
+        <v>10.87699787877196</v>
       </c>
       <c r="D125">
-        <v>13.56814417649295</v>
+        <v>3.354582851031426</v>
       </c>
       <c r="E125">
-        <v>13.97013162021756</v>
+        <v>14.09405656834462</v>
       </c>
       <c r="F125">
-        <v>9.638998991476326</v>
+        <v>19.66783779879972</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>12.00472721704251</v>
+        <v>7.467286043421086</v>
       </c>
       <c r="C126">
-        <v>4.727289527517691</v>
+        <v>10.82124785979838</v>
       </c>
       <c r="D126">
-        <v>13.49791742851167</v>
+        <v>3.33889827057916</v>
       </c>
       <c r="E126">
-        <v>13.89896342926503</v>
+        <v>14.08754744396736</v>
       </c>
       <c r="F126">
-        <v>9.579829796466798</v>
+        <v>19.63704952082586</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>11.94716917359217</v>
+        <v>7.459510568758545</v>
       </c>
       <c r="C127">
-        <v>4.712428987103398</v>
+        <v>10.76557511964638</v>
       </c>
       <c r="D127">
-        <v>13.42781908341153</v>
+        <v>3.323262798155533</v>
       </c>
       <c r="E127">
-        <v>13.82789950493075</v>
+        <v>14.0810240246584</v>
       </c>
       <c r="F127">
-        <v>9.520754178703607</v>
+        <v>19.60627479091842</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>11.88973431121577</v>
+        <v>7.451738185436509</v>
       </c>
       <c r="C128">
-        <v>4.697586145502767</v>
+        <v>10.70998056192401</v>
       </c>
       <c r="D128">
-        <v>13.35784947507785</v>
+        <v>3.30767651925177</v>
       </c>
       <c r="E128">
-        <v>13.7569403185044</v>
+        <v>14.07448812383565</v>
       </c>
       <c r="F128">
-        <v>9.461772772178168</v>
+        <v>19.57551402888266</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>11.83242304831528</v>
+        <v>7.443969098742651</v>
       </c>
       <c r="C129">
-        <v>4.682761654393365</v>
+        <v>10.65446502457592</v>
       </c>
       <c r="D129">
-        <v>13.28800893476193</v>
+        <v>3.29213949382319</v>
       </c>
       <c r="E129">
-        <v>13.6860863681252</v>
+        <v>14.06794132117791</v>
       </c>
       <c r="F129">
-        <v>9.402886200185796</v>
+        <v>19.54476759861348</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>11.77523578520159</v>
+        <v>7.436203473260021</v>
       </c>
       <c r="C130">
-        <v>4.66795611194832</v>
+        <v>10.59902928923868</v>
       </c>
       <c r="D130">
-        <v>13.21829779542134</v>
+        <v>3.276651774907295</v>
       </c>
       <c r="E130">
-        <v>13.61533808723677</v>
+        <v>14.06138499822773</v>
       </c>
       <c r="F130">
-        <v>9.344095070804967</v>
+        <v>19.51403580282701</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>11.71817290602655</v>
+        <v>7.428441464598824</v>
       </c>
       <c r="C131">
-        <v>4.653170068518357</v>
+        <v>10.5436740938824</v>
       </c>
       <c r="D131">
-        <v>13.14871638978043</v>
+        <v>3.261213403407075</v>
       </c>
       <c r="E131">
-        <v>13.54469591840279</v>
+        <v>14.05482036871254</v>
       </c>
       <c r="F131">
-        <v>9.285399983272146</v>
+        <v>19.48331890676622</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>11.66123478391255</v>
+        <v>7.420683194177496</v>
       </c>
       <c r="C132">
-        <v>4.638404031292026</v>
+        <v>10.48840014009879</v>
       </c>
       <c r="D132">
-        <v>13.07926504983389</v>
+        <v>3.245824412823556</v>
       </c>
       <c r="E132">
-        <v>13.47416027605137</v>
+        <v>14.04824849361163</v>
       </c>
       <c r="F132">
-        <v>9.226801529175047</v>
+        <v>19.45261713807019</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>11.60442177686674</v>
+        <v>7.412928776250186</v>
       </c>
       <c r="C133">
-        <v>4.6236584680584</v>
+        <v>10.43320809912493</v>
       </c>
       <c r="D133">
-        <v>13.00994411170953</v>
+        <v>3.230484829375992</v>
       </c>
       <c r="E133">
-        <v>13.40373156542591</v>
+        <v>14.04167030515573</v>
       </c>
       <c r="F133">
-        <v>9.168300293449045</v>
+        <v>19.42193069615579</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>11.54773423865395</v>
+        <v>7.405178302528018</v>
       </c>
       <c r="C134">
-        <v>4.60893381074881</v>
+        <v>10.37809861602129</v>
       </c>
       <c r="D134">
-        <v>12.94075390899037</v>
+        <v>3.215194674123039</v>
       </c>
       <c r="E134">
-        <v>13.33341018221815</v>
+        <v>14.03508661819246</v>
       </c>
       <c r="F134">
-        <v>9.109896857916047</v>
+        <v>19.391259756008</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>11.4911725078137</v>
+        <v>7.397431856274794</v>
       </c>
       <c r="C135">
-        <v>4.594230458737307</v>
+        <v>10.32307232401297</v>
       </c>
       <c r="D135">
-        <v>12.87169478028052</v>
+        <v>3.199953961890407</v>
       </c>
       <c r="E135">
-        <v>13.26319651528357</v>
+        <v>14.02849815998262</v>
       </c>
       <c r="F135">
-        <v>9.051591799989401</v>
+        <v>19.36060446662667</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>11.43473692195885</v>
+        <v>7.389689508208844</v>
       </c>
       <c r="C136">
-        <v>4.57954878200345</v>
+        <v>10.26812982825495</v>
       </c>
       <c r="D136">
-        <v>12.80276706365141</v>
+        <v>3.184762703662292</v>
       </c>
       <c r="E136">
-        <v>13.19309094591669</v>
+        <v>14.02190556186044</v>
       </c>
       <c r="F136">
-        <v>8.993385696218107</v>
+        <v>19.32996496325309</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>11.37842780609132</v>
+        <v>7.38195132105282</v>
       </c>
       <c r="C137">
-        <v>4.564889123185396</v>
+        <v>10.21327173994567</v>
       </c>
       <c r="D137">
-        <v>12.7339711004029</v>
+        <v>3.169620905385134</v>
       </c>
       <c r="E137">
-        <v>13.12309385121179</v>
+        <v>14.01530939178609</v>
       </c>
       <c r="F137">
-        <v>8.935279121318619</v>
+        <v>19.29934136058945</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11.32224548363823</v>
+        <v>7.374217349632019</v>
       </c>
       <c r="C138">
-        <v>4.550251799811861</v>
+        <v>10.15849864379006</v>
       </c>
       <c r="D138">
-        <v>12.66530723379951</v>
+        <v>3.15452856969144</v>
       </c>
       <c r="E138">
-        <v>13.05320560568556</v>
+        <v>14.00871015514775</v>
       </c>
       <c r="F138">
-        <v>8.87727265027959</v>
+        <v>19.26873376222796</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.26619027002012</v>
+        <v>7.366487642795918</v>
       </c>
       <c r="C139">
-        <v>4.5356371082978</v>
+        <v>10.1038111285733</v>
       </c>
       <c r="D139">
-        <v>12.59677580954561</v>
+        <v>3.139485695654146</v>
       </c>
       <c r="E139">
-        <v>12.98342657563313</v>
+        <v>14.00210828622689</v>
       </c>
       <c r="F139">
-        <v>8.819366858790138</v>
+        <v>19.23814225979469</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>11.21026247778716</v>
+        <v>7.358762242883469</v>
       </c>
       <c r="C140">
-        <v>4.521045322064492</v>
+        <v>10.04920977139819</v>
       </c>
       <c r="D140">
-        <v>12.52837717615169</v>
+        <v>3.124492279638495</v>
       </c>
       <c r="E140">
-        <v>12.91375712979965</v>
+        <v>13.99550419287591</v>
       </c>
       <c r="F140">
-        <v>8.761562323867885</v>
+        <v>19.20756693573854</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11.15446241492162</v>
+        <v>7.351041188034897</v>
       </c>
       <c r="C141">
-        <v>4.506476699742914</v>
+        <v>9.994695143309432</v>
       </c>
       <c r="D141">
-        <v>12.46011168473861</v>
+        <v>3.109548315559134</v>
       </c>
       <c r="E141">
-        <v>12.84419762957851</v>
+        <v>13.98889820919272</v>
       </c>
       <c r="F141">
-        <v>8.703859624990454</v>
+        <v>19.17700786544895</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>11.09879038665678</v>
+        <v>7.343324510927859</v>
       </c>
       <c r="C142">
-        <v>4.491931477985418</v>
+        <v>9.940267815030198</v>
       </c>
       <c r="D142">
-        <v>12.39197968972974</v>
+        <v>3.094653794572477</v>
       </c>
       <c r="E142">
-        <v>12.77474843773846</v>
+        <v>13.98229065503022</v>
       </c>
       <c r="F142">
-        <v>8.646259344122093</v>
+        <v>19.1464651163107</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>11.04324669508106</v>
+        <v>7.335612241035987</v>
       </c>
       <c r="C143">
-        <v>4.477409882397372</v>
+        <v>9.885928350924942</v>
       </c>
       <c r="D143">
-        <v>12.32398154793124</v>
+        <v>3.079808706763742</v>
       </c>
       <c r="E143">
-        <v>12.70540991501128</v>
+        <v>13.97568179593205</v>
       </c>
       <c r="F143">
-        <v>8.588762066774972</v>
+        <v>19.11593875154775</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>10.9878316403182</v>
+        <v>7.327904403870703</v>
       </c>
       <c r="C144">
-        <v>4.462912120464336</v>
+        <v>9.831677316417526</v>
       </c>
       <c r="D144">
-        <v>12.25611761984594</v>
+        <v>3.065013040608789</v>
       </c>
       <c r="E144">
-        <v>12.63618242176572</v>
+        <v>13.96907187925695</v>
       </c>
       <c r="F144">
-        <v>8.531368382018254</v>
+        <v>19.085428827767</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>10.9325455201354</v>
+        <v>7.320201022304592</v>
       </c>
       <c r="C145">
-        <v>4.448438387915551</v>
+        <v>9.777515275431579</v>
       </c>
       <c r="D145">
-        <v>12.18838826871611</v>
+        <v>3.050266780615898</v>
       </c>
       <c r="E145">
-        <v>12.5670663190673</v>
+        <v>13.96246111866627</v>
       </c>
       <c r="F145">
-        <v>8.474078883158295</v>
+        <v>19.05493539822364</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>10.87738863054849</v>
+        <v>7.312502116646449</v>
       </c>
       <c r="C146">
-        <v>4.433988867551853</v>
+        <v>9.723442792848461</v>
       </c>
       <c r="D146">
-        <v>12.12079386101886</v>
+        <v>3.035569913121918</v>
       </c>
       <c r="E146">
-        <v>12.49806196888534</v>
+        <v>13.95584971051888</v>
       </c>
       <c r="F146">
-        <v>8.416894168067115</v>
+        <v>19.0244585118478</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>10.82236126610954</v>
+        <v>7.304807704980957</v>
       </c>
       <c r="C147">
-        <v>4.41956373048812</v>
+        <v>9.669460433533867</v>
       </c>
       <c r="D147">
-        <v>12.05333476661553</v>
+        <v>3.020922422097622</v>
       </c>
       <c r="E147">
-        <v>12.42916973404702</v>
+        <v>13.94923782498324</v>
       </c>
       <c r="F147">
-        <v>8.359814839409418</v>
+        <v>18.9939982146342</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10.76746371970017</v>
+        <v>7.297117803713252</v>
       </c>
       <c r="C148">
-        <v>4.405163137826827</v>
+        <v>9.61556876544828</v>
       </c>
       <c r="D148">
-        <v>11.9860113585024</v>
+        <v>3.006324287481716</v>
       </c>
       <c r="E148">
-        <v>12.36038997928029</v>
+        <v>13.94262562162006</v>
       </c>
       <c r="F148">
-        <v>8.302841505214632</v>
+        <v>18.96355454998079</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>10.71269628331802</v>
+        <v>7.289432427369172</v>
       </c>
       <c r="C149">
-        <v>4.390787240581644</v>
+        <v>9.561768355623254</v>
       </c>
       <c r="D149">
-        <v>11.91882401316945</v>
+        <v>2.991775491753469</v>
       </c>
       <c r="E149">
-        <v>12.29172307117603</v>
+        <v>13.9360132375719</v>
       </c>
       <c r="F149">
-        <v>8.245974778931972</v>
+        <v>18.93312755883649</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>10.65805924769351</v>
+        <v>7.281751589236807</v>
       </c>
       <c r="C150">
-        <v>4.376436181352875</v>
+        <v>9.508059775634329</v>
       </c>
       <c r="D150">
-        <v>11.85177311050252</v>
+        <v>2.977276014585885</v>
       </c>
       <c r="E150">
-        <v>12.22316937768762</v>
+        <v>13.92940080016786</v>
       </c>
       <c r="F150">
-        <v>8.18921527992296</v>
+        <v>18.90271728051598</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>10.60355290290462</v>
+        <v>7.274075301072965</v>
       </c>
       <c r="C151">
-        <v>4.362110093986918</v>
+        <v>9.454443596689382</v>
       </c>
       <c r="D151">
-        <v>11.78485903388678</v>
+        <v>2.962825833156919</v>
       </c>
       <c r="E151">
-        <v>12.15472926988072</v>
+        <v>13.92278842198976</v>
       </c>
       <c r="F151">
-        <v>8.132563633582519</v>
+        <v>18.87232375234904</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>10.5491775382203</v>
+        <v>7.266403573624632</v>
       </c>
       <c r="C152">
-        <v>4.347809105490504</v>
+        <v>9.400920393895618</v>
       </c>
       <c r="D152">
-        <v>11.71808217022948</v>
+        <v>2.948424925515262</v>
       </c>
       <c r="E152">
-        <v>12.08640312040929</v>
+        <v>13.91617620346553</v>
       </c>
       <c r="F152">
-        <v>8.076020471653143</v>
+        <v>18.84194701043782</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>10.49493344245361</v>
+        <v>7.258736416479691</v>
       </c>
       <c r="C153">
-        <v>4.333533334879285</v>
+        <v>9.347490744013431</v>
       </c>
       <c r="D153">
-        <v>11.65144291005351</v>
+        <v>2.934073267732924</v>
       </c>
       <c r="E153">
-        <v>12.0181913051774</v>
+        <v>13.9095642363586</v>
       </c>
       <c r="F153">
-        <v>8.019586432452884</v>
+        <v>18.81158708945612</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>10.44082090383121</v>
+        <v>7.251073838397156</v>
       </c>
       <c r="C154">
-        <v>4.319282895643243</v>
+        <v>9.294155226712148</v>
       </c>
       <c r="D154">
-        <v>11.58494164749416</v>
+        <v>2.919770834649575</v>
       </c>
       <c r="E154">
-        <v>11.95009420273345</v>
+        <v>13.9029526013982</v>
       </c>
       <c r="F154">
-        <v>7.963262161020532</v>
+        <v>18.78124402300702</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>10.38684021037825</v>
+        <v>7.243415847279908</v>
       </c>
       <c r="C155">
-        <v>4.305057894148949</v>
+        <v>9.240914424587217</v>
       </c>
       <c r="D155">
-        <v>11.51857878031424</v>
+        <v>2.905517600487522</v>
       </c>
       <c r="E155">
-        <v>11.8821121947947</v>
+        <v>13.89634137270709</v>
       </c>
       <c r="F155">
-        <v>7.90704830943695</v>
+        <v>18.75091784378838</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>10.33299164961212</v>
+        <v>7.235762450407124</v>
       </c>
       <c r="C156">
-        <v>4.290858431983338</v>
+        <v>9.187768923341624</v>
       </c>
       <c r="D156">
-        <v>11.4523547100408</v>
+        <v>2.891313538427828</v>
       </c>
       <c r="E156">
-        <v>11.81424566636863</v>
+        <v>13.88973061619841</v>
       </c>
       <c r="F156">
-        <v>7.850945536896759</v>
+        <v>18.72060858362925</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>10.27927550903076</v>
+        <v>7.228113654358708</v>
       </c>
       <c r="C157">
-        <v>4.276684604714582</v>
+        <v>9.134719311850059</v>
       </c>
       <c r="D157">
-        <v>11.38626984184143</v>
+        <v>2.877158620764556</v>
       </c>
       <c r="E157">
-        <v>11.74649500601398</v>
+        <v>13.88312039244496</v>
       </c>
       <c r="F157">
-        <v>7.794954509999116</v>
+        <v>18.69031627373024</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>10.22569207574625</v>
+        <v>7.22046946529537</v>
       </c>
       <c r="C158">
-        <v>4.262536503582377</v>
+        <v>9.081766182362205</v>
       </c>
       <c r="D158">
-        <v>11.3203245847221</v>
+        <v>2.863052818933583</v>
       </c>
       <c r="E158">
-        <v>11.67886060577193</v>
+        <v>13.8765107551902</v>
       </c>
       <c r="F158">
-        <v>7.739075902862212</v>
+        <v>18.66004094465388</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>10.17224163690805</v>
+        <v>7.212829888758264</v>
       </c>
       <c r="C159">
-        <v>4.248414214819801</v>
+        <v>9.028910130615662</v>
       </c>
       <c r="D159">
-        <v>11.25451935143979</v>
+        <v>2.848996103404362</v>
       </c>
       <c r="E159">
-        <v>11.61134286156447</v>
+        <v>13.86990175465152</v>
       </c>
       <c r="F159">
-        <v>7.683310397333227</v>
+        <v>18.6297826264093</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>10.118924479453</v>
+        <v>7.205194929991748</v>
       </c>
       <c r="C160">
-        <v>4.234317820752186</v>
+        <v>8.976151755584281</v>
       </c>
       <c r="D160">
-        <v>11.18885455860105</v>
+        <v>2.834988443941937</v>
       </c>
       <c r="E160">
-        <v>11.54394217313859</v>
+        <v>13.86329343466323</v>
       </c>
       <c r="F160">
-        <v>7.627658683150964</v>
+        <v>18.59954134858912</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>10.06574089036872</v>
+        <v>7.197564593726721</v>
       </c>
       <c r="C161">
-        <v>4.220247399510657</v>
+        <v>8.923491660078817</v>
       </c>
       <c r="D161">
-        <v>11.12333062667455</v>
+        <v>2.821029809595117</v>
       </c>
       <c r="E161">
-        <v>11.47665894414524</v>
+        <v>13.85668583674965</v>
       </c>
       <c r="F161">
-        <v>7.572121458051194</v>
+        <v>18.56931714059587</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>10.0126911565611</v>
+        <v>7.18993888443938</v>
       </c>
       <c r="C162">
-        <v>4.20620302567148</v>
+        <v>8.87093045015261</v>
       </c>
       <c r="D162">
-        <v>11.05794798002715</v>
+        <v>2.80712016814336</v>
       </c>
       <c r="E162">
-        <v>11.4094935824674</v>
+        <v>13.85007899704056</v>
       </c>
       <c r="F162">
-        <v>7.516699428061259</v>
+        <v>18.53911003099341</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>9.959775565024716</v>
+        <v>7.182317806223564</v>
       </c>
       <c r="C163">
-        <v>4.19218477030908</v>
+        <v>8.818468735736062</v>
       </c>
       <c r="D163">
-        <v>10.99270704695726</v>
+        <v>2.7932594869509</v>
       </c>
       <c r="E163">
-        <v>11.34244650003461</v>
+        <v>13.84347294950453</v>
       </c>
       <c r="F163">
-        <v>7.461393307552876</v>
+        <v>18.50892004872123</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>9.906994402729733</v>
+        <v>7.174701362941117</v>
       </c>
       <c r="C164">
-        <v>4.178192701219483</v>
+        <v>8.766107130286493</v>
       </c>
       <c r="D164">
-        <v>10.92760825972104</v>
+        <v>2.779447732523771</v>
       </c>
       <c r="E164">
-        <v>11.27551811320481</v>
+        <v>13.83686772436047</v>
       </c>
       <c r="F164">
-        <v>7.406203819328937</v>
+        <v>18.47874722221436</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>9.854347956781275</v>
+        <v>7.167089558174029</v>
       </c>
       <c r="C165">
-        <v>4.164226883277188</v>
+        <v>8.713846251051594</v>
       </c>
       <c r="D165">
-        <v>10.86265205457762</v>
+        <v>2.765684870242415</v>
       </c>
       <c r="E165">
-        <v>11.20870884268741</v>
+        <v>13.83026334933339</v>
       </c>
       <c r="F165">
-        <v>7.351131695068371</v>
+        <v>18.44859157939781</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>9.801836514292155</v>
+        <v>7.159482395311872</v>
       </c>
       <c r="C166">
-        <v>4.150287378350365</v>
+        <v>8.661686719038897</v>
       </c>
       <c r="D166">
-        <v>10.79783887178679</v>
+        <v>2.751970864958146</v>
       </c>
       <c r="E166">
-        <v>11.14201911374845</v>
+        <v>13.82365984966611</v>
       </c>
       <c r="F166">
-        <v>7.296177675072203</v>
+        <v>18.41845314861531</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>9.749460362520066</v>
+        <v>7.151879877519686</v>
       </c>
       <c r="C167">
-        <v>4.136374245819604</v>
+        <v>8.609629159083708</v>
       </c>
       <c r="D167">
-        <v>10.73316915567819</v>
+        <v>2.738305680626045</v>
       </c>
       <c r="E167">
-        <v>11.07544935625051</v>
+        <v>13.81705724836267</v>
       </c>
       <c r="F167">
-        <v>7.241342508681515</v>
+        <v>18.38833195751782</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>9.697219788774293</v>
+        <v>7.14428200781607</v>
       </c>
       <c r="C168">
-        <v>4.12248754237674</v>
+        <v>8.557674199828437</v>
       </c>
       <c r="D168">
-        <v>10.66864335463521</v>
+        <v>2.724689280380668</v>
       </c>
       <c r="E168">
-        <v>11.0090000048088</v>
+        <v>13.81045556655251</v>
       </c>
       <c r="F168">
-        <v>7.186626954441881</v>
+        <v>18.35822803385633</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>9.645115080488313</v>
+        <v>7.136688789027541</v>
       </c>
       <c r="C169">
-        <v>4.108627322538244</v>
+        <v>8.505822473846107</v>
       </c>
       <c r="D169">
-        <v>10.60426192115436</v>
+        <v>2.711121626566113</v>
       </c>
       <c r="E169">
-        <v>10.94267149879773</v>
+        <v>13.80385482341124</v>
       </c>
       <c r="F169">
-        <v>7.132031779931777</v>
+        <v>18.32814140530972</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>9.593146525184403</v>
+        <v>7.12910022386182</v>
       </c>
       <c r="C170">
-        <v>4.094793638443235</v>
+        <v>8.454074617543053</v>
       </c>
       <c r="D170">
-        <v>10.54002531188473</v>
+        <v>2.69760268074066</v>
       </c>
       <c r="E170">
-        <v>10.87646428253025</v>
+        <v>13.79725503675005</v>
       </c>
       <c r="F170">
-        <v>7.077557762308116</v>
+        <v>18.29807209927508</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>9.541314410492319</v>
+        <v>7.121516314849863</v>
       </c>
       <c r="C171">
-        <v>4.080986540315265</v>
+        <v>8.402431271263998</v>
       </c>
       <c r="D171">
-        <v>10.47593398762797</v>
+        <v>2.684132403728819</v>
       </c>
       <c r="E171">
-        <v>10.8103788052708</v>
+        <v>13.79065622257703</v>
       </c>
       <c r="F171">
-        <v>7.023205688193491</v>
+        <v>18.2680201432134</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>9.489619024142698</v>
+        <v>7.113937064463364</v>
       </c>
       <c r="C172">
-        <v>4.067206076260002</v>
+        <v>8.350893079270888</v>
       </c>
       <c r="D172">
-        <v>10.41198841332373</v>
+        <v>2.670710755529829</v>
       </c>
       <c r="E172">
-        <v>10.74441552134209</v>
+        <v>13.78405839591866</v>
       </c>
       <c r="F172">
-        <v>6.968976353845596</v>
+        <v>18.23798556447373</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>9.438060653961944</v>
+        <v>7.106362475053915</v>
       </c>
       <c r="C173">
-        <v>4.053452292697982</v>
+        <v>8.299460689742023</v>
       </c>
       <c r="D173">
-        <v>10.34818905820697</v>
+        <v>2.657337695388517</v>
       </c>
       <c r="E173">
-        <v>10.6785748902282</v>
+        <v>13.77746157022957</v>
       </c>
       <c r="F173">
-        <v>6.914870565382734</v>
+        <v>18.20796839035728</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>9.386639587873271</v>
+        <v>7.098792548800472</v>
       </c>
       <c r="C174">
-        <v>4.039725234152658</v>
+        <v>8.248134754830604</v>
       </c>
       <c r="D174">
-        <v>10.2845363957441</v>
+        <v>2.644013181780033</v>
       </c>
       <c r="E174">
-        <v>10.61285737661146</v>
+        <v>13.7708657581549</v>
       </c>
       <c r="F174">
-        <v>6.860889138853823</v>
+        <v>18.17796864815711</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>9.335356113877896</v>
+        <v>7.091227287928063</v>
       </c>
       <c r="C175">
-        <v>4.026024943644608</v>
+        <v>8.19691593062883</v>
       </c>
       <c r="D175">
-        <v>10.22103090359633</v>
+        <v>2.630737172436339</v>
       </c>
       <c r="E175">
-        <v>10.54726345050286</v>
+        <v>13.76427097108947</v>
       </c>
       <c r="F175">
-        <v>6.807032900403722</v>
+        <v>18.14798636508548</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>9.28421052006237</v>
+        <v>7.083666694531091</v>
       </c>
       <c r="C176">
-        <v>4.012351462528185</v>
+        <v>8.145804877217341</v>
       </c>
       <c r="D176">
-        <v>10.15767306377332</v>
+        <v>2.617509624297786</v>
       </c>
       <c r="E176">
-        <v>10.48179358728619</v>
+        <v>13.75767721970201</v>
       </c>
       <c r="F176">
-        <v>6.753302686411255</v>
+        <v>18.11802156840128</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>9.233203094566184</v>
+        <v>7.076110770537941</v>
       </c>
       <c r="C177">
-        <v>3.998704830760921</v>
+        <v>8.094802258648087</v>
       </c>
       <c r="D177">
-        <v>10.09446336262438</v>
+        <v>2.604330493528261</v>
       </c>
       <c r="E177">
-        <v>10.41644826782227</v>
+        <v>13.75108451368549</v>
       </c>
       <c r="F177">
-        <v>6.699699343610455</v>
+        <v>18.08807428533839</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>9.182334125595355</v>
+        <v>7.068559517965102</v>
       </c>
       <c r="C178">
-        <v>3.985085086867697</v>
+        <v>8.043908742973846</v>
       </c>
       <c r="D178">
-        <v>10.03140229081771</v>
+        <v>2.591199735572789</v>
       </c>
       <c r="E178">
-        <v>10.35122797851311</v>
+        <v>13.74449286209611</v>
       </c>
       <c r="F178">
-        <v>6.646223729260024</v>
+        <v>18.05814454305863</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>9.131603901381196</v>
+        <v>7.061012938700328</v>
       </c>
       <c r="C179">
-        <v>3.971492268066479</v>
+        <v>7.993125002223396</v>
       </c>
       <c r="D179">
-        <v>9.968490343340378</v>
+        <v>2.578117305078466</v>
       </c>
       <c r="E179">
-        <v>10.28613321139587</v>
+        <v>13.73790227322488</v>
       </c>
       <c r="F179">
-        <v>6.592876711251042</v>
+        <v>18.02823236881025</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>9.081012710194374</v>
+        <v>7.053471034514482</v>
       </c>
       <c r="C180">
-        <v>3.957926410332037</v>
+        <v>7.942451712446214</v>
       </c>
       <c r="D180">
-        <v>9.905728019648992</v>
+        <v>2.565083155933903</v>
       </c>
       <c r="E180">
-        <v>10.22116446420214</v>
+        <v>13.73131275478232</v>
       </c>
       <c r="F180">
-        <v>6.5396591682428</v>
+        <v>17.9983377897836</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>9.030560840301698</v>
+        <v>7.045933807225919</v>
       </c>
       <c r="C181">
-        <v>3.944387548431239</v>
+        <v>7.891889553658872</v>
       </c>
       <c r="D181">
-        <v>9.843115823597339</v>
+        <v>2.552097241282306</v>
       </c>
       <c r="E181">
-        <v>10.1563222404577</v>
+        <v>13.72472431389882</v>
       </c>
       <c r="F181">
-        <v>6.486571989832594</v>
+        <v>17.96846083317441</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>8.980248579976077</v>
+        <v>7.03840125856158</v>
       </c>
       <c r="C182">
-        <v>3.930875716006783</v>
+        <v>7.841439209905925</v>
       </c>
       <c r="D182">
-        <v>9.780654263436123</v>
+        <v>2.539159513506541</v>
       </c>
       <c r="E182">
-        <v>10.09160704954173</v>
+        <v>13.71813695715982</v>
       </c>
       <c r="F182">
-        <v>6.43361607664863</v>
+        <v>17.93860152621145</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>8.930076217453484</v>
+        <v>7.030873390185661</v>
       </c>
       <c r="C183">
-        <v>3.91739094557561</v>
+        <v>7.791101369196897</v>
       </c>
       <c r="D183">
-        <v>9.718343851917423</v>
+        <v>2.526269924231559</v>
       </c>
       <c r="E183">
-        <v>10.02701940677384</v>
+        <v>13.71155069071593</v>
       </c>
       <c r="F183">
-        <v>6.380792340516102</v>
+        <v>17.90875989610606</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>8.880044040939227</v>
+        <v>7.023350203758379</v>
       </c>
       <c r="C184">
-        <v>3.903933268768765</v>
+        <v>7.740876723557821</v>
       </c>
       <c r="D184">
-        <v>9.656185106282969</v>
+        <v>2.513428424327285</v>
       </c>
       <c r="E184">
-        <v>9.962559833491357</v>
+        <v>13.70496552022192</v>
       </c>
       <c r="F184">
-        <v>6.32810170458682</v>
+        <v>17.8789359700989</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>8.830152338563593</v>
+        <v>7.015831700888931</v>
       </c>
       <c r="C185">
-        <v>3.890502716202716</v>
+        <v>7.690765968986226</v>
       </c>
       <c r="D185">
-        <v>9.594178548269392</v>
+        <v>2.500634963929634</v>
       </c>
       <c r="E185">
-        <v>9.898228857123241</v>
+        <v>13.69838145099054</v>
       </c>
       <c r="F185">
-        <v>6.275545103469376</v>
+        <v>17.8491297754432</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>8.780401398384827</v>
+        <v>7.008317883151887</v>
       </c>
       <c r="C186">
-        <v>3.877099317329245</v>
+        <v>7.640769805470999</v>
       </c>
       <c r="D186">
-        <v>9.532324704123308</v>
+        <v>2.487889492414132</v>
       </c>
       <c r="E186">
-        <v>9.834027011272886</v>
+        <v>13.69179848791036</v>
       </c>
       <c r="F186">
-        <v>6.223123483372929</v>
+        <v>17.81934133941298</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8.730791508333379</v>
+        <v>7.000808752103636</v>
       </c>
       <c r="C187">
-        <v>3.863723101128926</v>
+        <v>7.590888936973521</v>
       </c>
       <c r="D187">
-        <v>9.470624104684491</v>
+        <v>2.475191958414115</v>
       </c>
       <c r="E187">
-        <v>9.769954835795041</v>
+        <v>13.68521663558539</v>
       </c>
       <c r="F187">
-        <v>6.17083780224056</v>
+        <v>17.78957068930674</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>8.681322956241313</v>
+        <v>6.993304309264889</v>
       </c>
       <c r="C188">
-        <v>3.850374095686689</v>
+        <v>7.541124071423591</v>
       </c>
       <c r="D188">
-        <v>9.409077285359988</v>
+        <v>2.462542309821622</v>
       </c>
       <c r="E188">
-        <v>9.706012876872418</v>
+        <v>13.67863589826401</v>
       </c>
       <c r="F188">
-        <v>6.118689029886747</v>
+        <v>17.75981785244145</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>8.631996029799708</v>
+        <v>6.985804556131198</v>
       </c>
       <c r="C189">
-        <v>3.837052327752509</v>
+        <v>7.491475920702285</v>
       </c>
       <c r="D189">
-        <v>9.347684786096451</v>
+        <v>2.449940493787293</v>
       </c>
       <c r="E189">
-        <v>9.642201687099604</v>
+        <v>13.67205627995569</v>
       </c>
       <c r="F189">
-        <v>6.066678148133196</v>
+        <v>17.73008285616562</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>8.582811016453146</v>
+        <v>6.978309494188983</v>
       </c>
       <c r="C190">
-        <v>3.823757823945786</v>
+        <v>7.441945200629664</v>
       </c>
       <c r="D190">
-        <v>9.286447151510412</v>
+        <v>2.437386456722452</v>
       </c>
       <c r="E190">
-        <v>9.578521825555603</v>
+        <v>13.66547778432651</v>
       </c>
       <c r="F190">
-        <v>6.014806150937837</v>
+        <v>17.700365727858</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>8.533768203539728</v>
+        <v>6.970819124888266</v>
       </c>
       <c r="C191">
-        <v>3.810490610028353</v>
+        <v>7.392532630999279</v>
       </c>
       <c r="D191">
-        <v>9.22536493084845</v>
+        <v>2.424880144293034</v>
       </c>
       <c r="E191">
-        <v>9.514973857890238</v>
+        <v>13.65890041489754</v>
       </c>
       <c r="F191">
-        <v>5.96307404454102</v>
+        <v>17.67066649490985</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>8.484867878170197</v>
+        <v>6.963333449660012</v>
       </c>
       <c r="C192">
-        <v>3.797250710665348</v>
+        <v>7.343238935507516</v>
       </c>
       <c r="D192">
-        <v>9.164438677984435</v>
+        <v>2.412421501436569</v>
       </c>
       <c r="E192">
-        <v>9.451558356396799</v>
+        <v>13.65232417499371</v>
       </c>
       <c r="F192">
-        <v>5.91148284759409</v>
+        <v>17.64098518475848</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>8.436110327120881</v>
+        <v>6.955852469930983</v>
       </c>
       <c r="C193">
-        <v>3.784038150170889</v>
+        <v>7.294064841681945</v>
       </c>
       <c r="D193">
-        <v>9.103668951434914</v>
+        <v>2.400010472352647</v>
       </c>
       <c r="E193">
-        <v>9.388275900102338</v>
+        <v>13.64574906756456</v>
       </c>
       <c r="F193">
-        <v>5.860033591278491</v>
+        <v>17.61132182486266</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8.387495836964673</v>
+        <v>6.948376187094951</v>
       </c>
       <c r="C194">
-        <v>3.770852952215632</v>
+        <v>7.245011081077777</v>
       </c>
       <c r="D194">
-        <v>9.043056314464634</v>
+        <v>2.387647000504469</v>
       </c>
       <c r="E194">
-        <v>9.325127074835546</v>
+        <v>13.63917509553263</v>
       </c>
       <c r="F194">
-        <v>5.808727319470741</v>
+        <v>17.58167644270762</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8.33902469399237</v>
+        <v>6.940904602531879</v>
       </c>
       <c r="C195">
-        <v>3.757695139683366</v>
+        <v>7.196078389105278</v>
       </c>
       <c r="D195">
-        <v>8.982601335030838</v>
+        <v>2.375331028626636</v>
       </c>
       <c r="E195">
-        <v>9.262112473308617</v>
+        <v>13.63260226171621</v>
       </c>
       <c r="F195">
-        <v>5.757565088843153</v>
+        <v>17.55204906581687</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8.290697184100251</v>
+        <v>6.933437717614122</v>
       </c>
       <c r="C196">
-        <v>3.744564734872134</v>
+        <v>7.147267504822805</v>
       </c>
       <c r="D196">
-        <v>8.922304585720063</v>
+        <v>2.363062498723938</v>
       </c>
       <c r="E196">
-        <v>9.199232695214201</v>
+        <v>13.62603056861784</v>
       </c>
       <c r="F196">
-        <v>5.706547969002991</v>
+        <v>17.52243972174027</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8.242513592838126</v>
+        <v>6.925975533691431</v>
       </c>
       <c r="C197">
-        <v>3.731461759603637</v>
+        <v>7.098579171367505</v>
       </c>
       <c r="D197">
-        <v>8.862166643953708</v>
+        <v>2.350841352075201</v>
       </c>
       <c r="E197">
-        <v>9.136488347298625</v>
+        <v>13.61946001856887</v>
       </c>
       <c r="F197">
-        <v>5.655677042646179</v>
+        <v>17.4928484380622</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>8.19447420541351</v>
+        <v>6.918518052102246</v>
       </c>
       <c r="C198">
-        <v>3.718386235068805</v>
+        <v>7.050014135641398</v>
       </c>
       <c r="D198">
-        <v>8.802188091882156</v>
+        <v>2.338667529230738</v>
       </c>
       <c r="E198">
-        <v>9.073880043416633</v>
+        <v>13.61289061397791</v>
       </c>
       <c r="F198">
-        <v>5.604953405633323</v>
+        <v>17.46327524239975</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>8.146579306577618</v>
+        <v>6.911065274174676</v>
       </c>
       <c r="C199">
-        <v>3.7053381818774</v>
+        <v>7.001573148161603</v>
       </c>
       <c r="D199">
-        <v>8.742369516384283</v>
+        <v>2.326540970020884</v>
       </c>
       <c r="E199">
-        <v>9.01140840464703</v>
+        <v>13.6063223570201</v>
       </c>
       <c r="F199">
-        <v>5.554378167178367</v>
+        <v>17.43372016240341</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>8.098829180616505</v>
+        <v>6.903617201222231</v>
       </c>
       <c r="C200">
-        <v>3.69231762021456</v>
+        <v>6.95325696333173</v>
       </c>
       <c r="D200">
-        <v>8.682711509093306</v>
+        <v>2.314461613556349</v>
       </c>
       <c r="E200">
-        <v>8.949074059407113</v>
+        <v>13.59975524959732</v>
       </c>
       <c r="F200">
-        <v>5.503952449943022</v>
+        <v>17.40418322575844</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>8.051224111383203</v>
+        <v>6.896173834548933</v>
       </c>
       <c r="C201">
-        <v>3.679324569731144</v>
+        <v>6.905066339315417</v>
       </c>
       <c r="D201">
-        <v>8.623214666497883</v>
+        <v>2.302429398226079</v>
       </c>
       <c r="E201">
-        <v>8.886877643436522</v>
+        <v>13.59318929373482</v>
       </c>
       <c r="F201">
-        <v>5.453677390131221</v>
+        <v>17.3746644601837</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>8.003764382199222</v>
+        <v>6.888735175449536</v>
       </c>
       <c r="C202">
-        <v>3.666359049507992</v>
+        <v>6.85700203787895</v>
       </c>
       <c r="D202">
-        <v>8.563879589870147</v>
+        <v>2.290444261705729</v>
       </c>
       <c r="E202">
-        <v>8.824819799949076</v>
+        <v>13.58662449129027</v>
       </c>
       <c r="F202">
-        <v>5.403554137691291</v>
+        <v>17.34516389343312</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7.956450275818688</v>
+        <v>6.881301225205751</v>
       </c>
       <c r="C203">
-        <v>3.653421078281435</v>
+        <v>6.809064824439098</v>
       </c>
       <c r="D203">
-        <v>8.504706885184842</v>
+        <v>2.278506140956867</v>
       </c>
       <c r="E203">
-        <v>8.762901179763588</v>
+        <v>13.58006084392143</v>
       </c>
       <c r="F203">
-        <v>5.353583856355589</v>
+        <v>17.31568155329731</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7.909282074464548</v>
+        <v>6.873871985093045</v>
       </c>
       <c r="C204">
-        <v>3.640510674314441</v>
+        <v>6.761255468155026</v>
       </c>
       <c r="D204">
-        <v>8.445697163360135</v>
+        <v>2.266614972228462</v>
       </c>
       <c r="E204">
-        <v>8.701122441276354</v>
+        <v>13.57349835332048</v>
       </c>
       <c r="F204">
-        <v>5.303767723788429</v>
+        <v>17.28621746759848</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7.862260059740294</v>
+        <v>6.866447456379088</v>
       </c>
       <c r="C205">
-        <v>3.627627855288519</v>
+        <v>6.71357474172505</v>
       </c>
       <c r="D205">
-        <v>8.386851040114525</v>
+        <v>2.254770691061759</v>
       </c>
       <c r="E205">
-        <v>8.639484250606341</v>
+        <v>13.56693702106963</v>
       </c>
       <c r="F205">
-        <v>5.254106931751089</v>
+        <v>17.25677166419783</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7.815384512569457</v>
+        <v>6.859027640318052</v>
       </c>
       <c r="C206">
-        <v>3.614772638615898</v>
+        <v>6.666023421316249</v>
       </c>
       <c r="D206">
-        <v>8.328169135946204</v>
+        <v>2.242973232290627</v>
       </c>
       <c r="E206">
-        <v>8.577987281701727</v>
+        <v>13.56037684864934</v>
       </c>
       <c r="F206">
-        <v>5.204602686084072</v>
+        <v>17.22734417099094</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7.768655713253318</v>
+        <v>6.851612538160791</v>
       </c>
       <c r="C207">
-        <v>3.601945041260615</v>
+        <v>6.618602286770273</v>
       </c>
       <c r="D207">
-        <v>8.269652076182794</v>
+        <v>2.2312225300443</v>
       </c>
       <c r="E207">
-        <v>8.516632216401289</v>
+        <v>13.55381783749969</v>
       </c>
       <c r="F207">
-        <v>5.155256206983347</v>
+        <v>17.19793501590778</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7.722073941375267</v>
+        <v>6.844202151150467</v>
       </c>
       <c r="C208">
-        <v>3.589145079692061</v>
+        <v>6.571312121379044</v>
       </c>
       <c r="D208">
-        <v>8.21130049107585</v>
+        <v>2.219518517752241</v>
       </c>
       <c r="E208">
-        <v>8.455419744490424</v>
+        <v>13.54725998900701</v>
       </c>
       <c r="F208">
-        <v>5.106068729007887</v>
+        <v>17.168544226916</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7.675639475716982</v>
+        <v>6.836796480518455</v>
       </c>
       <c r="C209">
-        <v>3.576372770046273</v>
+        <v>6.524153711701196</v>
       </c>
       <c r="D209">
-        <v>8.153115015701401</v>
+        <v>2.207861128142785</v>
       </c>
       <c r="E209">
-        <v>8.394350563830347</v>
+        <v>13.54070330447956</v>
       </c>
       <c r="F209">
-        <v>5.057041501136283</v>
+        <v>17.13917183201824</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7.629352594343485</v>
+        <v>6.829395527493269</v>
       </c>
       <c r="C210">
-        <v>3.563628128092212</v>
+        <v>6.47712784789938</v>
       </c>
       <c r="D210">
-        <v>8.095096289850796</v>
+        <v>2.196250293247859</v>
       </c>
       <c r="E210">
-        <v>8.33342538045637</v>
+        <v>13.53414778517308</v>
       </c>
       <c r="F210">
-        <v>5.008175787034746</v>
+        <v>17.10981785925346</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7.583213574491253</v>
+        <v>6.821999293295744</v>
       </c>
       <c r="C211">
-        <v>3.550911169178325</v>
+        <v>6.430235323450304</v>
       </c>
       <c r="D211">
-        <v>8.037244958333448</v>
+        <v>2.184685944408731</v>
       </c>
       <c r="E211">
-        <v>8.27264490859981</v>
+        <v>13.52759343232501</v>
       </c>
       <c r="F211">
-        <v>4.95947286497522</v>
+        <v>17.08048233669702</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7.537222692496913</v>
+        <v>6.814607779138231</v>
       </c>
       <c r="C212">
-        <v>3.538221908282024</v>
+        <v>6.383476934960544</v>
       </c>
       <c r="D212">
-        <v>7.979561670775705</v>
+        <v>2.173168012272171</v>
       </c>
       <c r="E212">
-        <v>8.212009870820967</v>
+        <v>13.5210402471096</v>
       </c>
       <c r="F212">
-        <v>4.910934028009092</v>
+        <v>17.05116529246038</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7.491380223843693</v>
+        <v>6.807220986228781</v>
       </c>
       <c r="C213">
-        <v>3.525560360061854</v>
+        <v>6.336853482418492</v>
       </c>
       <c r="D213">
-        <v>7.922047081571656</v>
+        <v>2.161696426797708</v>
       </c>
       <c r="E213">
-        <v>8.151520998125449</v>
+        <v>13.51448823062482</v>
       </c>
       <c r="F213">
-        <v>4.862560584132293</v>
+        <v>17.0218667546917</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7.445686443089436</v>
+        <v>6.799838915768919</v>
       </c>
       <c r="C214">
-        <v>3.512926538801904</v>
+        <v>6.290365769039687</v>
       </c>
       <c r="D214">
-        <v>7.864701849975023</v>
+        <v>2.150271117262493</v>
       </c>
       <c r="E214">
-        <v>8.091179029975894</v>
+        <v>13.50793738398433</v>
       </c>
       <c r="F214">
-        <v>4.814353856121763</v>
+        <v>16.99258675157548</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7.400141623791246</v>
+        <v>6.792461568953478</v>
       </c>
       <c r="C215">
-        <v>3.5003204584195</v>
+        <v>6.244014601060532</v>
       </c>
       <c r="D215">
-        <v>7.807526640169725</v>
+        <v>2.138892012257778</v>
       </c>
       <c r="E215">
-        <v>8.03098471442617</v>
+        <v>13.50138770825026</v>
       </c>
       <c r="F215">
-        <v>4.766315181943524</v>
+        <v>16.96332531133255</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7.354746038509123</v>
+        <v>6.78508894697269</v>
       </c>
       <c r="C216">
-        <v>3.48774213253939</v>
+        <v>6.197800787779148</v>
       </c>
       <c r="D216">
-        <v>7.75052212114201</v>
+        <v>2.12755903969676</v>
       </c>
       <c r="E216">
-        <v>7.970938808219282</v>
+        <v>13.49483920440621</v>
       </c>
       <c r="F216">
-        <v>4.718445914610391</v>
+        <v>16.93408246222082</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7.309499958776305</v>
+        <v>6.777721051011133</v>
       </c>
       <c r="C217">
-        <v>3.475191574444444</v>
+        <v>6.151725141650012</v>
       </c>
       <c r="D217">
-        <v>7.693688966552182</v>
+        <v>2.11627212681824</v>
       </c>
       <c r="E217">
-        <v>7.911042076855525</v>
+        <v>13.48829187345348</v>
       </c>
       <c r="F217">
-        <v>4.670747422193273</v>
+        <v>16.90485823253339</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7.264403655014905</v>
+        <v>6.770357882247136</v>
       </c>
       <c r="C218">
-        <v>3.462668797056111</v>
+        <v>6.105788477999431</v>
       </c>
       <c r="D218">
-        <v>7.637027855085329</v>
+        <v>2.105031200184913</v>
       </c>
       <c r="E218">
-        <v>7.851295294668712</v>
+        <v>13.48174571635042</v>
       </c>
       <c r="F218">
-        <v>4.623221088166866</v>
+        <v>16.87565265060111</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7.219457396511213</v>
+        <v>6.762999441855088</v>
       </c>
       <c r="C219">
-        <v>3.450173813029882</v>
+        <v>6.059991614903847</v>
       </c>
       <c r="D219">
-        <v>7.580539470195999</v>
+        <v>2.09383618569073</v>
       </c>
       <c r="E219">
-        <v>7.791699244938047</v>
+        <v>13.47520073400884</v>
       </c>
       <c r="F219">
-        <v>4.575868311138956</v>
+        <v>16.84646574479162</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7.174661451414057</v>
+        <v>6.755645731004055</v>
       </c>
       <c r="C220">
-        <v>3.437706634701918</v>
+        <v>6.014335373479589</v>
       </c>
       <c r="D220">
-        <v>7.524224500016069</v>
+        <v>2.082687008563723</v>
       </c>
       <c r="E220">
-        <v>7.732254719979086</v>
+        <v>13.46865692732852</v>
       </c>
       <c r="F220">
-        <v>4.528690505076374</v>
+        <v>16.81729754350946</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7.130016086643929</v>
+        <v>6.748296750857136</v>
       </c>
       <c r="C221">
-        <v>3.425267274055344</v>
+        <v>5.968820577540383</v>
       </c>
       <c r="D221">
-        <v>7.468083637512127</v>
+        <v>2.071583593365879</v>
       </c>
       <c r="E221">
-        <v>7.672962521202618</v>
+        <v>13.46211429718592</v>
       </c>
       <c r="F221">
-        <v>4.481689099424086</v>
+        <v>16.78814807519239</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7.085521567846031</v>
+        <v>6.740952502573931</v>
       </c>
       <c r="C222">
-        <v>3.412855742822742</v>
+        <v>5.923448053341043</v>
       </c>
       <c r="D222">
-        <v>7.412117580507465</v>
+        <v>2.060525864000335</v>
       </c>
       <c r="E222">
-        <v>7.613823459225071</v>
+        <v>13.45557284442818</v>
       </c>
       <c r="F222">
-        <v>4.434865538496801</v>
+        <v>16.75901736831842</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7.041178159411484</v>
+        <v>6.733612987308917</v>
       </c>
       <c r="C223">
-        <v>3.400472052431946</v>
+        <v>5.878218630015602</v>
       </c>
       <c r="D223">
-        <v>7.35632703152625</v>
+        <v>2.049513743713344</v>
       </c>
       <c r="E223">
-        <v>7.55483835395591</v>
+        <v>13.44903256988116</v>
       </c>
       <c r="F223">
-        <v>4.388221282645777</v>
+        <v>16.72990545140177</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>6.996986124380252</v>
+        <v>6.726278206211211</v>
       </c>
       <c r="C224">
-        <v>3.388116213992476</v>
+        <v>5.833133139169869</v>
       </c>
       <c r="D224">
-        <v>7.300712697647615</v>
+        <v>2.038547155095395</v>
       </c>
       <c r="E224">
-        <v>7.496008034675907</v>
+        <v>13.44249347435742</v>
       </c>
       <c r="F224">
-        <v>4.341757807654352</v>
+        <v>16.70081235299346</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6.952945724375759</v>
+        <v>6.718948160426315</v>
       </c>
       <c r="C225">
-        <v>3.375788238339916</v>
+        <v>5.788192414638186</v>
       </c>
       <c r="D225">
-        <v>7.245275290907367</v>
+        <v>2.027626020088719</v>
       </c>
       <c r="E225">
-        <v>7.437333340131567</v>
+        <v>13.43595555864722</v>
       </c>
       <c r="F225">
-        <v>4.295476604947807</v>
+        <v>16.6717381016766</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6.90905721964392</v>
+        <v>6.711622851094952</v>
       </c>
       <c r="C226">
-        <v>3.363488136036946</v>
+        <v>5.743397292781219</v>
       </c>
       <c r="D226">
-        <v>7.190015527978756</v>
+        <v>2.016750259987977</v>
       </c>
       <c r="E226">
-        <v>7.378815118611137</v>
+        <v>13.42941882351738</v>
       </c>
       <c r="F226">
-        <v>4.249379179485799</v>
+        <v>16.64268272607546</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6.865320868951675</v>
+        <v>6.704302279353098</v>
       </c>
       <c r="C227">
-        <v>3.351215917349794</v>
+        <v>5.698748612267043</v>
       </c>
       <c r="D227">
-        <v>7.134934130020778</v>
+        <v>2.00591979544294</v>
       </c>
       <c r="E227">
-        <v>7.320454228043029</v>
+        <v>13.42288326972993</v>
       </c>
       <c r="F227">
-        <v>4.203467054137272</v>
+        <v>16.61364625484996</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6.821736929508331</v>
+        <v>6.69698644633291</v>
       </c>
       <c r="C228">
-        <v>3.338971592262341</v>
+        <v>5.654247213792606</v>
       </c>
       <c r="D228">
-        <v>7.080031822934305</v>
+        <v>1.995134546466155</v>
       </c>
       <c r="E228">
-        <v>7.262251536085039</v>
+        <v>13.41634889802931</v>
       </c>
       <c r="F228">
-        <v>4.157741766678175</v>
+        <v>16.5846287166964</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6.778305657014009</v>
+        <v>6.68967535316211</v>
       </c>
       <c r="C229">
-        <v>3.326755170503172</v>
+        <v>5.609893940121119</v>
       </c>
       <c r="D229">
-        <v>7.025309337302126</v>
+        <v>1.98439443243216</v>
       </c>
       <c r="E229">
-        <v>7.204207920193136</v>
+        <v>13.40981570913296</v>
       </c>
       <c r="F229">
-        <v>4.112204870604391</v>
+        <v>16.55563014034436</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6.735027305555092</v>
+        <v>6.682369000964048</v>
       </c>
       <c r="C230">
-        <v>3.314566661520537</v>
+        <v>5.565689636178331</v>
       </c>
       <c r="D230">
-        <v>6.970767408206432</v>
+        <v>1.973699372082168</v>
       </c>
       <c r="E230">
-        <v>7.146324267699089</v>
+        <v>13.40328370376053</v>
       </c>
       <c r="F230">
-        <v>4.066857931349696</v>
+        <v>16.52665055456292</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6.691902127528998</v>
+        <v>6.675067390858258</v>
       </c>
       <c r="C231">
-        <v>3.302406074481514</v>
+        <v>5.521635148671836</v>
       </c>
       <c r="D231">
-        <v>6.916406775073988</v>
+        <v>1.963049283534262</v>
       </c>
       <c r="E231">
-        <v>7.088601475942934</v>
+        <v>13.39675288261601</v>
       </c>
       <c r="F231">
-        <v>4.021702533679733</v>
+        <v>16.49768998815669</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6.648930373670443</v>
+        <v>6.66777052396005</v>
       </c>
       <c r="C232">
-        <v>3.290273418308262</v>
+        <v>5.477731325920053</v>
       </c>
       <c r="D232">
-        <v>6.862228182119805</v>
+        <v>1.952444084275017</v>
       </c>
       <c r="E232">
-        <v>7.03104045231874</v>
+        <v>13.39022324638242</v>
       </c>
       <c r="F232">
-        <v>3.976740276721688</v>
+        <v>16.46874846996634</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6.606112292970151</v>
+        <v>6.660478401380545</v>
       </c>
       <c r="C233">
-        <v>3.278168701654682</v>
+        <v>5.4339790182015</v>
       </c>
       <c r="D233">
-        <v>6.808232377960961</v>
+        <v>1.941883691170076</v>
       </c>
       <c r="E233">
-        <v>6.97364211430596</v>
+        <v>13.38369479573945</v>
       </c>
       <c r="F233">
-        <v>3.931972775002467</v>
+        <v>16.43982602886765</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6.563448132598389</v>
+        <v>6.653191024227175</v>
       </c>
       <c r="C234">
-        <v>3.266091932896365</v>
+        <v>5.390379077298064</v>
       </c>
       <c r="D234">
-        <v>6.754420115385815</v>
+        <v>1.931368020466075</v>
       </c>
       <c r="E234">
-        <v>6.916407389676294</v>
+        <v>13.37716753135674</v>
       </c>
       <c r="F234">
-        <v>3.887401654372207</v>
+        <v>16.41092269377353</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6.520938137897927</v>
+        <v>6.645908393603118</v>
       </c>
       <c r="C235">
-        <v>3.254043120172125</v>
+        <v>5.346932356153017</v>
       </c>
       <c r="D235">
-        <v>6.700792151748447</v>
+        <v>1.920896987805222</v>
       </c>
       <c r="E235">
-        <v>6.859337216495202</v>
+        <v>13.37064145389047</v>
       </c>
       <c r="F235">
-        <v>3.843028559628978</v>
+        <v>16.38203849363267</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6.478582552337933</v>
+        <v>6.638630510607465</v>
       </c>
       <c r="C236">
-        <v>3.242022271360509</v>
+        <v>5.303639709407832</v>
       </c>
       <c r="D236">
-        <v>6.647349248782235</v>
+        <v>1.910470508215909</v>
       </c>
       <c r="E236">
-        <v>6.802432543152999</v>
+        <v>13.36411656398761</v>
       </c>
       <c r="F236">
-        <v>3.798855149790933</v>
+        <v>16.35317345742964</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6.436381617428242</v>
+        <v>6.631357376335957</v>
       </c>
       <c r="C237">
-        <v>3.230029394069303</v>
+        <v>5.260501992865441</v>
       </c>
       <c r="D237">
-        <v>6.594092172396491</v>
+        <v>1.900088496112194</v>
       </c>
       <c r="E237">
-        <v>6.745694328536459</v>
+        <v>13.35759286228971</v>
       </c>
       <c r="F237">
-        <v>3.754883098634677</v>
+        <v>16.32432761418466</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6.394335572687768</v>
+        <v>6.624088991880445</v>
       </c>
       <c r="C238">
-        <v>3.218064495669215</v>
+        <v>5.217520063165334</v>
       </c>
       <c r="D238">
-        <v>6.541021692524828</v>
+        <v>1.889750865308122</v>
       </c>
       <c r="E238">
-        <v>6.689123542100821</v>
+        <v>13.35107034942846</v>
       </c>
       <c r="F238">
-        <v>3.711114090926121</v>
+        <v>16.29550099295407</v>
       </c>
     </row>
   </sheetData>
